--- a/Covid_49049_cc.xlsx
+++ b/Covid_49049_cc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haile/Documents/GitHub/R_UF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro5530/Documents/GitHub/R_UF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CC65E7-27BB-F74F-A0B6-0EC639C0535F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71617E3F-B11F-1A43-A0BC-C6787E6E9FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13800" yWindow="500" windowWidth="22220" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13780" yWindow="500" windowWidth="22220" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid_264" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -525,7 +522,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -881,16 +878,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B1093"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" customWidth="1"/>
     <col min="3" max="3" width="67.5" customWidth="1"/>
     <col min="4" max="6" width="54.5" customWidth="1"/>
   </cols>
@@ -905,517 +902,8744 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44110</v>
+        <v>44155</v>
       </c>
       <c r="B2">
-        <v>129.19999999999999</v>
+        <v>2.76570300348317</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44111</v>
+        <v>44156</v>
       </c>
       <c r="B3">
-        <v>65.86</v>
+        <v>8.4662771780638799</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44112</v>
+        <v>44157</v>
       </c>
       <c r="B4">
-        <v>36.619999999999997</v>
+        <v>14.1794585110837</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44113</v>
+        <v>44158</v>
       </c>
       <c r="B5">
-        <v>28.29</v>
+        <v>19.9018508823359</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44114</v>
+        <v>44159</v>
       </c>
       <c r="B6">
-        <v>27.35</v>
+        <v>25.764648027183402</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44115</v>
+        <v>44160</v>
       </c>
       <c r="B7">
-        <v>20.28</v>
+        <v>32.162720634103302</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44116</v>
+        <v>44161</v>
       </c>
       <c r="B8">
-        <v>3.6199999999999899</v>
+        <v>39.064260356962002</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44117</v>
+        <v>44162</v>
       </c>
       <c r="B9">
-        <v>13.6699999999999</v>
+        <v>46.152362052267101</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44118</v>
+        <v>44163</v>
       </c>
       <c r="B10">
-        <v>20.12</v>
+        <v>53.088584218884002</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44119</v>
+        <v>44164</v>
       </c>
       <c r="B11">
-        <v>29.229999999999901</v>
+        <v>59.645783110129997</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44120</v>
+        <v>44165</v>
       </c>
       <c r="B12">
-        <v>39.450000000000003</v>
+        <v>65.733400894512201</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44121</v>
+        <v>44166</v>
       </c>
       <c r="B13">
-        <v>84.87</v>
+        <v>71.357393164187798</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44122</v>
+        <v>44167</v>
       </c>
       <c r="B14">
-        <v>93.68</v>
+        <v>76.571757137763498</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44123</v>
+        <v>44168</v>
       </c>
       <c r="B15">
-        <v>102.94999999999899</v>
+        <v>81.444228824414907</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44124</v>
+        <v>44169</v>
       </c>
       <c r="B16">
-        <v>121.649999999999</v>
+        <v>86.036160088777194</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>44125</v>
+        <v>44170</v>
       </c>
       <c r="B17">
-        <v>135.96</v>
+        <v>90.474665013540204</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44126</v>
+        <v>44171</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>94.999964102716703</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>44127</v>
+        <v>44172</v>
       </c>
       <c r="B19">
-        <v>142.86999999999901</v>
+        <v>99.525320386130701</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>44128</v>
+        <v>44173</v>
       </c>
       <c r="B20">
-        <v>168.96</v>
+        <v>103.76023365513601</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>44129</v>
+        <v>44174</v>
       </c>
       <c r="B21">
-        <v>190.97</v>
+        <v>107.389812754513</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>44130</v>
+        <v>44175</v>
       </c>
       <c r="B22">
-        <v>174.15</v>
+        <v>110.17743753556501</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>44131</v>
+        <v>44176</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>112.02135671198199</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>44132</v>
+        <v>44177</v>
       </c>
       <c r="B24">
-        <v>149.319999999999</v>
+        <v>112.930573079501</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>44133</v>
+        <v>44178</v>
       </c>
       <c r="B25">
-        <v>128.72999999999999</v>
+        <v>112.98365227514</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>44134</v>
+        <v>44179</v>
       </c>
       <c r="B26">
-        <v>154.82</v>
+        <v>112.306427797994</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>44135</v>
+        <v>44180</v>
       </c>
       <c r="B27">
-        <v>94.62</v>
+        <v>111.06516049060799</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>44136</v>
+        <v>44181</v>
       </c>
       <c r="B28">
-        <v>76.23</v>
+        <v>109.38052703050199</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>44137</v>
+        <v>44182</v>
       </c>
       <c r="B29">
-        <v>64.599999999999895</v>
+        <v>107.1877407783</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>44138</v>
+        <v>44183</v>
       </c>
       <c r="B30">
-        <v>57.999999999999901</v>
+        <v>104.594192586156</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>44139</v>
+        <v>44184</v>
       </c>
       <c r="B31">
-        <v>52.65</v>
+        <v>101.6985865864</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>44140</v>
+        <v>44185</v>
       </c>
       <c r="B32">
-        <v>42.749999999999901</v>
+        <v>98.371798200932304</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>44141</v>
+        <v>44186</v>
       </c>
       <c r="B33">
-        <v>42.91</v>
+        <v>94.822599451903997</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>44142</v>
+        <v>44187</v>
       </c>
       <c r="B34">
-        <v>42.44</v>
+        <v>91.439082775681399</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>44143</v>
+        <v>44188</v>
       </c>
       <c r="B35">
-        <v>30.649999999999899</v>
+        <v>88.586160788197006</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>44144</v>
+        <v>44189</v>
       </c>
       <c r="B36">
-        <v>35.21</v>
+        <v>86.5041111387917</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>44145</v>
+        <v>44190</v>
       </c>
       <c r="B37">
-        <v>40.71</v>
+        <v>85.169953715353998</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>44146</v>
+        <v>44191</v>
       </c>
       <c r="B38">
-        <v>42.28</v>
+        <v>84.198643904289298</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>44147</v>
+        <v>44192</v>
       </c>
       <c r="B39">
-        <v>69.789999999999907</v>
+        <v>83.326925363906199</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>44148</v>
+        <v>44193</v>
       </c>
       <c r="B40">
-        <v>72.459999999999994</v>
+        <v>82.406103184762401</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>44149</v>
+        <v>44194</v>
       </c>
       <c r="B41">
-        <v>95.559999999999903</v>
+        <v>81.534609299340701</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>44150</v>
+        <v>44195</v>
       </c>
       <c r="B42">
-        <v>91</v>
+        <v>80.950922965331998</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>44151</v>
+        <v>44196</v>
       </c>
       <c r="B43">
-        <v>83.769999999999897</v>
+        <v>80.881337122989194</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>44152</v>
+        <v>44197</v>
       </c>
       <c r="B44">
-        <v>63.499999999999901</v>
+        <v>81.438601466537705</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>44153</v>
+        <v>44198</v>
       </c>
       <c r="B45">
-        <v>64.760000000000005</v>
+        <v>82.564887462759799</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44154</v>
+        <v>44199</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>84.062310808722799</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>44155</v>
+        <v>44200</v>
       </c>
       <c r="B47">
-        <v>58.309999999999903</v>
+        <v>85.682799374881498</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>44156</v>
+        <v>44201</v>
       </c>
       <c r="B48">
-        <v>46.05</v>
+        <v>87.2654716162738</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>44157</v>
+        <v>44202</v>
       </c>
       <c r="B49">
-        <v>25.78</v>
+        <v>88.8996504626773</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>44158</v>
+        <v>44203</v>
       </c>
       <c r="B50">
-        <v>28.76</v>
+        <v>90.876554576523404</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>44159</v>
+        <v>44204</v>
       </c>
       <c r="B51">
-        <v>26.25</v>
+        <v>93.777895175233098</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>44160</v>
+        <v>44205</v>
       </c>
       <c r="B52">
-        <v>28.45</v>
+        <v>97.727029776689704</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>44161</v>
+        <v>44206</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>102.436172942974</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>44162</v>
+        <v>44207</v>
       </c>
       <c r="B54">
-        <v>36.149999999999899</v>
+        <v>107.425697730172</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>44163</v>
+        <v>44208</v>
       </c>
       <c r="B55">
-        <v>37.56</v>
+        <v>112.174881529758</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>44164</v>
+        <v>44209</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>116.236235641942</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>44165</v>
+        <v>44210</v>
       </c>
       <c r="B57">
-        <v>26.409999999999901</v>
+        <v>119.308102408031</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>44166</v>
+        <v>44211</v>
       </c>
       <c r="B58">
-        <v>19.489999999999899</v>
+        <v>121.27396883378</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>44167</v>
+        <v>44212</v>
       </c>
       <c r="B59">
-        <v>15.719999999999899</v>
+        <v>122.249737456188</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>44168</v>
+        <v>44213</v>
       </c>
       <c r="B60">
-        <v>28.919999999999899</v>
+        <v>122.61255700714101</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>44169</v>
+        <v>44214</v>
       </c>
       <c r="B61">
-        <v>14.299999999999899</v>
+        <v>122.603841773423</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>44170</v>
+        <v>44215</v>
       </c>
       <c r="B62">
-        <v>14.15</v>
+        <v>122.122540129947</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>44171</v>
+        <v>44216</v>
       </c>
       <c r="B63">
-        <v>11.63</v>
+        <v>120.976570727504</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>44172</v>
+        <v>44217</v>
       </c>
       <c r="B64">
-        <v>8.17</v>
+        <v>119.005341860828</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>44173</v>
+        <v>44218</v>
       </c>
       <c r="B65">
-        <v>8.17</v>
+        <v>116.161846245573</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>44219</v>
+      </c>
+      <c r="B66">
+        <v>112.56587334879001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>44220</v>
+      </c>
+      <c r="B67">
+        <v>108.52873811672001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>44221</v>
+      </c>
+      <c r="B68">
+        <v>104.489370123865</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>44222</v>
+      </c>
+      <c r="B69">
+        <v>100.880703969777</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>44223</v>
+      </c>
+      <c r="B70">
+        <v>97.924927254856001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>44224</v>
+      </c>
+      <c r="B71">
+        <v>95.363155451916796</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>44225</v>
+      </c>
+      <c r="B72">
+        <v>92.796450969905706</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>44226</v>
+      </c>
+      <c r="B73">
+        <v>90.129353329293707</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>44227</v>
+      </c>
+      <c r="B74">
+        <v>87.368011400288296</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>44228</v>
+      </c>
+      <c r="B75">
+        <v>84.576652345236695</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>44229</v>
+      </c>
+      <c r="B76">
+        <v>81.835065929303695</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>44230</v>
+      </c>
+      <c r="B77">
+        <v>79.211528166062394</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>44231</v>
+      </c>
+      <c r="B78">
+        <v>76.746833223708904</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>44232</v>
+      </c>
+      <c r="B79">
+        <v>74.449959475909495</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>44233</v>
+      </c>
+      <c r="B80">
+        <v>72.303195126858</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>44234</v>
+      </c>
+      <c r="B81">
+        <v>70.271833112571002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>44235</v>
+      </c>
+      <c r="B82">
+        <v>68.320515036876898</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>44236</v>
+      </c>
+      <c r="B83">
+        <v>66.436866033788704</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>44237</v>
+      </c>
+      <c r="B84">
+        <v>64.637491408941401</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>44238</v>
+      </c>
+      <c r="B85">
+        <v>62.958706605783497</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>44239</v>
+      </c>
+      <c r="B86">
+        <v>61.434210793280002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>44240</v>
+      </c>
+      <c r="B87">
+        <v>60.077060888804901</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>44241</v>
+      </c>
+      <c r="B88">
+        <v>58.867549051559401</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>44242</v>
+      </c>
+      <c r="B89">
+        <v>57.744845109348802</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>44243</v>
+      </c>
+      <c r="B90">
+        <v>56.618682837646801</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>44244</v>
+      </c>
+      <c r="B91">
+        <v>55.396965956633203</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B92">
+        <v>54.025902502663399</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>44246</v>
+      </c>
+      <c r="B93">
+        <v>52.547349052720101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B94">
+        <v>51.012326079623499</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>44248</v>
+      </c>
+      <c r="B95">
+        <v>49.2789777077869</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>44249</v>
+      </c>
+      <c r="B96">
+        <v>47.342756525002599</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B97">
+        <v>45.315742660576099</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B98">
+        <v>43.345857892859897</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>44252</v>
+      </c>
+      <c r="B99">
+        <v>41.564991869546503</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>44253</v>
+      </c>
+      <c r="B100">
+        <v>40.055666018520903</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>44254</v>
+      </c>
+      <c r="B101">
+        <v>38.8402084666305</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>44255</v>
+      </c>
+      <c r="B102">
+        <v>37.891435017862797</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B103">
+        <v>37.149781516980198</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>44257</v>
+      </c>
+      <c r="B104">
+        <v>36.5513123626069</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>44258</v>
+      </c>
+      <c r="B105">
+        <v>36.093245365964997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>44259</v>
+      </c>
+      <c r="B106">
+        <v>35.911796020451497</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>44260</v>
+      </c>
+      <c r="B107">
+        <v>36.081646861237402</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>44261</v>
+      </c>
+      <c r="B108">
+        <v>36.583861635145503</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>44262</v>
+      </c>
+      <c r="B109">
+        <v>37.338916213395201</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>44263</v>
+      </c>
+      <c r="B110">
+        <v>38.228643134304903</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>44264</v>
+      </c>
+      <c r="B111">
+        <v>39.109560680733097</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>44265</v>
+      </c>
+      <c r="B112">
+        <v>39.832197338070699</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>44266</v>
+      </c>
+      <c r="B113">
+        <v>40.2675731840813</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>44267</v>
+      </c>
+      <c r="B114">
+        <v>40.349270731513101</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>44268</v>
+      </c>
+      <c r="B115">
+        <v>40.137801400506603</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>44269</v>
+      </c>
+      <c r="B116">
+        <v>39.804802665641802</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>44270</v>
+      </c>
+      <c r="B117">
+        <v>39.355973556372199</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>44271</v>
+      </c>
+      <c r="B118">
+        <v>38.740693576456799</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>44272</v>
+      </c>
+      <c r="B119">
+        <v>37.921865750926898</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>44273</v>
+      </c>
+      <c r="B120">
+        <v>36.890026265227299</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>44274</v>
+      </c>
+      <c r="B121">
+        <v>35.671444924924103</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>44275</v>
+      </c>
+      <c r="B122">
+        <v>34.332761616152098</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>44276</v>
+      </c>
+      <c r="B123">
+        <v>32.971792823902803</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>44277</v>
+      </c>
+      <c r="B124">
+        <v>31.694185605724201</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>44278</v>
+      </c>
+      <c r="B125">
+        <v>30.577325779660899</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>44279</v>
+      </c>
+      <c r="B126">
+        <v>29.614157893479799</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>44280</v>
+      </c>
+      <c r="B127">
+        <v>28.6850884072939</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>44281</v>
+      </c>
+      <c r="B128">
+        <v>27.711285827184199</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>44282</v>
+      </c>
+      <c r="B129">
+        <v>26.673042476638098</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>44283</v>
+      </c>
+      <c r="B130">
+        <v>25.590629215725201</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>44284</v>
+      </c>
+      <c r="B131">
+        <v>24.501815996230601</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>44285</v>
+      </c>
+      <c r="B132">
+        <v>23.446141078171902</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>44286</v>
+      </c>
+      <c r="B133">
+        <v>22.454488505501502</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>44287</v>
+      </c>
+      <c r="B134">
+        <v>21.54289711745</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>44288</v>
+      </c>
+      <c r="B135">
+        <v>20.712532595112499</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>44289</v>
+      </c>
+      <c r="B136">
+        <v>19.951695601735501</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>44290</v>
+      </c>
+      <c r="B137">
+        <v>19.239587672927598</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>44291</v>
+      </c>
+      <c r="B138">
+        <v>18.5532158498686</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>44292</v>
+      </c>
+      <c r="B139">
+        <v>17.857586704419901</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>44293</v>
+      </c>
+      <c r="B140">
+        <v>17.1471775947977</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>44294</v>
+      </c>
+      <c r="B141">
+        <v>16.4583373178322</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>44295</v>
+      </c>
+      <c r="B142">
+        <v>15.837734818257699</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>44296</v>
+      </c>
+      <c r="B143">
+        <v>15.320438499961501</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>44297</v>
+      </c>
+      <c r="B144">
+        <v>14.9161724442304</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>44298</v>
+      </c>
+      <c r="B145">
+        <v>14.6063116109706</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>44299</v>
+      </c>
+      <c r="B146">
+        <v>14.3537113312386</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>44300</v>
+      </c>
+      <c r="B147">
+        <v>14.118777499651401</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>44301</v>
+      </c>
+      <c r="B148">
+        <v>13.884084407225901</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>44302</v>
+      </c>
+      <c r="B149">
+        <v>13.6736456938822</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>44303</v>
+      </c>
+      <c r="B150">
+        <v>13.5229951401904</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>44304</v>
+      </c>
+      <c r="B151">
+        <v>13.466239416251399</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>44305</v>
+      </c>
+      <c r="B152">
+        <v>13.514520758908001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>44306</v>
+      </c>
+      <c r="B153">
+        <v>13.658050791405</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>44307</v>
+      </c>
+      <c r="B154">
+        <v>13.8693375059171</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>44308</v>
+      </c>
+      <c r="B155">
+        <v>14.105970321365101</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>44309</v>
+      </c>
+      <c r="B156">
+        <v>14.3174638809509</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>44310</v>
+      </c>
+      <c r="B157">
+        <v>14.456745595291</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>44311</v>
+      </c>
+      <c r="B158">
+        <v>14.4953444375739</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>44312</v>
+      </c>
+      <c r="B159">
+        <v>14.4456061816824</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>44313</v>
+      </c>
+      <c r="B160">
+        <v>14.365599131783</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>44314</v>
+      </c>
+      <c r="B161">
+        <v>14.273703597324801</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>44315</v>
+      </c>
+      <c r="B162">
+        <v>14.168404789247401</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>44316</v>
+      </c>
+      <c r="B163">
+        <v>14.0457864463613</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>44317</v>
+      </c>
+      <c r="B164">
+        <v>13.9025425298431</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>44318</v>
+      </c>
+      <c r="B165">
+        <v>13.738232056850601</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>44319</v>
+      </c>
+      <c r="B166">
+        <v>13.557034794503499</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>44320</v>
+      </c>
+      <c r="B167">
+        <v>13.368249026515</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>44321</v>
+      </c>
+      <c r="B168">
+        <v>13.183838605389999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>44322</v>
+      </c>
+      <c r="B169">
+        <v>13.0140614016725</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>44323</v>
+      </c>
+      <c r="B170">
+        <v>12.8606976752835</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>44324</v>
+      </c>
+      <c r="B171">
+        <v>12.7135737829161</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>44325</v>
+      </c>
+      <c r="B172">
+        <v>12.564191962493799</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>44326</v>
+      </c>
+      <c r="B173">
+        <v>12.407587075807401</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>44327</v>
+      </c>
+      <c r="B174">
+        <v>12.2511301504929</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>44328</v>
+      </c>
+      <c r="B175">
+        <v>12.1068291042249</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>44329</v>
+      </c>
+      <c r="B176">
+        <v>11.984583303485</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>44330</v>
+      </c>
+      <c r="B177">
+        <v>11.887860879908599</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>44331</v>
+      </c>
+      <c r="B178">
+        <v>11.8125505781623</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>44332</v>
+      </c>
+      <c r="B179">
+        <v>11.750016350683699</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>44333</v>
+      </c>
+      <c r="B180">
+        <v>11.6914848763422</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>44334</v>
+      </c>
+      <c r="B181">
+        <v>11.634210380447</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>44335</v>
+      </c>
+      <c r="B182">
+        <v>11.585413965813199</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>44336</v>
+      </c>
+      <c r="B183">
+        <v>11.5514330698087</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>44337</v>
+      </c>
+      <c r="B184">
+        <v>11.542780539303999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>44338</v>
+      </c>
+      <c r="B185">
+        <v>11.568453805389501</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>44339</v>
+      </c>
+      <c r="B186">
+        <v>11.631896577834</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>44340</v>
+      </c>
+      <c r="B187">
+        <v>11.7291166472633</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>44341</v>
+      </c>
+      <c r="B188">
+        <v>11.8480566561592</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>44342</v>
+      </c>
+      <c r="B189">
+        <v>11.970602716920499</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>44343</v>
+      </c>
+      <c r="B190">
+        <v>12.0777963534685</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>44344</v>
+      </c>
+      <c r="B191">
+        <v>12.1565785524618</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>44345</v>
+      </c>
+      <c r="B192">
+        <v>12.2091553945514</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>44346</v>
+      </c>
+      <c r="B193">
+        <v>12.256143079796299</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>44347</v>
+      </c>
+      <c r="B194">
+        <v>12.3071729970397</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B195">
+        <v>12.3699895306166</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>44349</v>
+      </c>
+      <c r="B196">
+        <v>12.4482242586487</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>44350</v>
+      </c>
+      <c r="B197">
+        <v>12.5407322586133</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>44351</v>
+      </c>
+      <c r="B198">
+        <v>12.6426143257807</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>44352</v>
+      </c>
+      <c r="B199">
+        <v>12.746380708753</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>44353</v>
+      </c>
+      <c r="B200">
+        <v>12.843919988279399</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>44354</v>
+      </c>
+      <c r="B201">
+        <v>12.9288341770448</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <v>44355</v>
+      </c>
+      <c r="B202">
+        <v>12.998469535831999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <v>44356</v>
+      </c>
+      <c r="B203">
+        <v>13.0562932343509</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <v>44357</v>
+      </c>
+      <c r="B204">
+        <v>13.1115761180505</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <v>44358</v>
+      </c>
+      <c r="B205">
+        <v>13.1735138610299</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <v>44359</v>
+      </c>
+      <c r="B206">
+        <v>13.260711152853499</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <v>44360</v>
+      </c>
+      <c r="B207">
+        <v>13.373893110757599</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <v>44361</v>
+      </c>
+      <c r="B208">
+        <v>13.499330903154901</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <v>44362</v>
+      </c>
+      <c r="B209">
+        <v>13.6181673402535</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <v>44363</v>
+      </c>
+      <c r="B210">
+        <v>13.713240800605501</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>44364</v>
+      </c>
+      <c r="B211">
+        <v>13.773924534140599</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <v>44365</v>
+      </c>
+      <c r="B212">
+        <v>13.7974983511675</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <v>44366</v>
+      </c>
+      <c r="B213">
+        <v>13.788236972313401</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <v>44367</v>
+      </c>
+      <c r="B214">
+        <v>13.755303994017501</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <v>44368</v>
+      </c>
+      <c r="B215">
+        <v>13.7079324757</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <v>44369</v>
+      </c>
+      <c r="B216">
+        <v>13.6496679075704</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <v>44370</v>
+      </c>
+      <c r="B217">
+        <v>13.582928626135301</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <v>44371</v>
+      </c>
+      <c r="B218">
+        <v>13.4999913955038</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <v>44372</v>
+      </c>
+      <c r="B219">
+        <v>13.3893907788788</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B220">
+        <v>13.2434556145438</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B221">
+        <v>13.0632884331729</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B222">
+        <v>12.8604361539472</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B223">
+        <v>12.652399307580501</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B224">
+        <v>12.454959969592601</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B225">
+        <v>12.271361310231599</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B226">
+        <v>12.0865375615539</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B227">
+        <v>11.8891950848473</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <v>44381</v>
+      </c>
+      <c r="B228">
+        <v>11.660417601440701</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B229">
+        <v>11.3974116085536</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <v>44383</v>
+      </c>
+      <c r="B230">
+        <v>11.1116284180251</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <v>44384</v>
+      </c>
+      <c r="B231">
+        <v>10.820966006649099</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <v>44385</v>
+      </c>
+      <c r="B232">
+        <v>10.5441035913131</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <v>44386</v>
+      </c>
+      <c r="B233">
+        <v>10.29608687635</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <v>44387</v>
+      </c>
+      <c r="B234">
+        <v>10.0857236768985</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <v>44388</v>
+      </c>
+      <c r="B235">
+        <v>9.9141855413188207</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <v>44389</v>
+      </c>
+      <c r="B236">
+        <v>9.7737933908657997</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <v>44390</v>
+      </c>
+      <c r="B237">
+        <v>9.6508727363183695</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B238">
+        <v>9.5492745158417502</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B239">
+        <v>9.4948780692764103</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <v>44393</v>
+      </c>
+      <c r="B240">
+        <v>9.4972597065108992</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>44394</v>
+      </c>
+      <c r="B241">
+        <v>9.5483102994733393</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>44395</v>
+      </c>
+      <c r="B242">
+        <v>9.6286817739447699</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <v>44396</v>
+      </c>
+      <c r="B243">
+        <v>9.7127723578295306</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B244">
+        <v>9.7738756442131702</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B245">
+        <v>9.7899586516852608</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B246">
+        <v>9.7494671383189502</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B247">
+        <v>9.6586778088705092</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <v>44401</v>
+      </c>
+      <c r="B248">
+        <v>9.54412442003348</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <v>44402</v>
+      </c>
+      <c r="B249">
+        <v>9.4029953025655697</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B250">
+        <v>9.1897829804895999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B251">
+        <v>8.8945059763994507</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
+        <v>44405</v>
+      </c>
+      <c r="B252">
+        <v>8.5397637986501493</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
+        <v>44406</v>
+      </c>
+      <c r="B253">
+        <v>8.1635103413251109</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <v>44407</v>
+      </c>
+      <c r="B254">
+        <v>7.8066559181900299</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
+        <v>44408</v>
+      </c>
+      <c r="B255">
+        <v>7.5030031279774798</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
+        <v>44409</v>
+      </c>
+      <c r="B256">
+        <v>7.27392146606695</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B257">
+        <v>7.1257783917953903</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" s="1">
+        <v>44411</v>
+      </c>
+      <c r="B258">
+        <v>7.0470856351581004</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
+        <v>44412</v>
+      </c>
+      <c r="B259">
+        <v>7.0093550639570701</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
+        <v>44413</v>
+      </c>
+      <c r="B260">
+        <v>7.0011876385409098</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <v>44414</v>
+      </c>
+      <c r="B261">
+        <v>7.0350637633454296</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
+        <v>44415</v>
+      </c>
+      <c r="B262">
+        <v>7.1269979500060296</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
+        <v>44416</v>
+      </c>
+      <c r="B263">
+        <v>7.2874931427365697</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B264">
+        <v>7.5165449281690702</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <v>44418</v>
+      </c>
+      <c r="B265">
+        <v>7.8006246506414199</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <v>44419</v>
+      </c>
+      <c r="B266">
+        <v>8.1124035248775801</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <v>44420</v>
+      </c>
+      <c r="B267">
+        <v>8.4168584234872892</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
+        <v>44421</v>
+      </c>
+      <c r="B268">
+        <v>8.6822486795181497</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
+        <v>44422</v>
+      </c>
+      <c r="B269">
+        <v>8.8966574423767799</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
+        <v>44423</v>
+      </c>
+      <c r="B270">
+        <v>9.0862886914275691</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
+        <v>44424</v>
+      </c>
+      <c r="B271">
+        <v>9.2816562265856302</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
+        <v>44425</v>
+      </c>
+      <c r="B272">
+        <v>9.5074319241720406</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" s="1">
+        <v>44426</v>
+      </c>
+      <c r="B273">
+        <v>9.7644736067918796</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" s="1">
+        <v>44427</v>
+      </c>
+      <c r="B274">
+        <v>10.035388853171</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" s="1">
+        <v>44428</v>
+      </c>
+      <c r="B275">
+        <v>10.296798239192</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
+        <v>44429</v>
+      </c>
+      <c r="B276">
+        <v>10.5276517566815</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
+        <v>44430</v>
+      </c>
+      <c r="B277">
+        <v>10.715027163702899</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B278">
+        <v>10.855914182972301</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" s="1">
+        <v>44432</v>
+      </c>
+      <c r="B279">
+        <v>10.955647830666599</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" s="1">
+        <v>44433</v>
+      </c>
+      <c r="B280">
+        <v>11.0248085081322</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" s="1">
+        <v>44434</v>
+      </c>
+      <c r="B281">
+        <v>11.074032862650601</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" s="1">
+        <v>44435</v>
+      </c>
+      <c r="B282">
+        <v>11.1040778369386</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" s="1">
+        <v>44436</v>
+      </c>
+      <c r="B283">
+        <v>11.101469948858499</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" s="1">
+        <v>44437</v>
+      </c>
+      <c r="B284">
+        <v>11.0561377124328</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B285">
+        <v>10.965575672258099</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" s="1">
+        <v>44439</v>
+      </c>
+      <c r="B286">
+        <v>10.8348300588728</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B287">
+        <v>10.6763409632064</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" s="1">
+        <v>44441</v>
+      </c>
+      <c r="B288">
+        <v>10.509137835524101</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" s="1">
+        <v>44442</v>
+      </c>
+      <c r="B289">
+        <v>10.355232945221699</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" s="1">
+        <v>44443</v>
+      </c>
+      <c r="B290">
+        <v>10.233879280368001</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" s="1">
+        <v>44444</v>
+      </c>
+      <c r="B291">
+        <v>10.152858545659001</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B292">
+        <v>10.097084899521599</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" s="1">
+        <v>44446</v>
+      </c>
+      <c r="B293">
+        <v>10.0297491533446</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" s="1">
+        <v>44447</v>
+      </c>
+      <c r="B294">
+        <v>9.89693735231406</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" s="1">
+        <v>44448</v>
+      </c>
+      <c r="B295">
+        <v>9.6972371191762399</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" s="1">
+        <v>44449</v>
+      </c>
+      <c r="B296">
+        <v>9.4687780425644696</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" s="1">
+        <v>44450</v>
+      </c>
+      <c r="B297">
+        <v>9.2618665081342293</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" s="1">
+        <v>44451</v>
+      </c>
+      <c r="B298">
+        <v>9.1208948398982201</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B299">
+        <v>9.0719889005720908</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" s="1">
+        <v>44453</v>
+      </c>
+      <c r="B300">
+        <v>9.1197400030015991</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" s="1">
+        <v>44454</v>
+      </c>
+      <c r="B301">
+        <v>9.2517386191169404</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" s="1">
+        <v>44455</v>
+      </c>
+      <c r="B302">
+        <v>9.4459746958883297</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" s="1">
+        <v>44456</v>
+      </c>
+      <c r="B303">
+        <v>9.6825851473977895</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" s="1">
+        <v>44457</v>
+      </c>
+      <c r="B304">
+        <v>9.9537017435520703</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" s="1">
+        <v>44458</v>
+      </c>
+      <c r="B305">
+        <v>10.2622472742333</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B306">
+        <v>10.6266795085344</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" s="1">
+        <v>44460</v>
+      </c>
+      <c r="B307">
+        <v>11.068278138579799</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" s="1">
+        <v>44461</v>
+      </c>
+      <c r="B308">
+        <v>11.5997742572834</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" s="1">
+        <v>44462</v>
+      </c>
+      <c r="B309">
+        <v>12.217947672227499</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" s="1">
+        <v>44463</v>
+      </c>
+      <c r="B310">
+        <v>12.898984513707701</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" s="1">
+        <v>44464</v>
+      </c>
+      <c r="B311">
+        <v>13.602321238723899</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" s="1">
+        <v>44465</v>
+      </c>
+      <c r="B312">
+        <v>14.282467646910201</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B313">
+        <v>14.9079596383884</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" s="1">
+        <v>44467</v>
+      </c>
+      <c r="B314">
+        <v>15.4896123175519</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" s="1">
+        <v>44468</v>
+      </c>
+      <c r="B315">
+        <v>16.075382601962499</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" s="1">
+        <v>44469</v>
+      </c>
+      <c r="B316">
+        <v>16.690977219551399</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" s="1">
+        <v>44470</v>
+      </c>
+      <c r="B317">
+        <v>17.3408287962462</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" s="1">
+        <v>44471</v>
+      </c>
+      <c r="B318">
+        <v>18.015426980260798</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" s="1">
+        <v>44472</v>
+      </c>
+      <c r="B319">
+        <v>18.699205972286101</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B320">
+        <v>19.3756661209271</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" s="1">
+        <v>44474</v>
+      </c>
+      <c r="B321">
+        <v>20.0307461415807</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" s="1">
+        <v>44475</v>
+      </c>
+      <c r="B322">
+        <v>20.6548456695072</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" s="1">
+        <v>44476</v>
+      </c>
+      <c r="B323">
+        <v>21.243457258120301</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" s="1">
+        <v>44477</v>
+      </c>
+      <c r="B324">
+        <v>21.798137562635802</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" s="1">
+        <v>44478</v>
+      </c>
+      <c r="B325">
+        <v>22.327766953155798</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" s="1">
+        <v>44479</v>
+      </c>
+      <c r="B326">
+        <v>22.850703456972902</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B327">
+        <v>23.398048197999</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" s="1">
+        <v>44481</v>
+      </c>
+      <c r="B328">
+        <v>23.968288971006402</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" s="1">
+        <v>44482</v>
+      </c>
+      <c r="B329">
+        <v>24.533414160403701</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" s="1">
+        <v>44483</v>
+      </c>
+      <c r="B330">
+        <v>25.059725651915102</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" s="1">
+        <v>44484</v>
+      </c>
+      <c r="B331">
+        <v>25.5213408766401</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" s="1">
+        <v>44485</v>
+      </c>
+      <c r="B332">
+        <v>25.9087037133575</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" s="1">
+        <v>44486</v>
+      </c>
+      <c r="B333">
+        <v>26.229948961622199</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" s="1">
+        <v>44487</v>
+      </c>
+      <c r="B334">
+        <v>26.505104781282899</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" s="1">
+        <v>44488</v>
+      </c>
+      <c r="B335">
+        <v>26.757050058674</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" s="1">
+        <v>44489</v>
+      </c>
+      <c r="B336">
+        <v>26.9974547434534</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" s="1">
+        <v>44490</v>
+      </c>
+      <c r="B337">
+        <v>27.213051859922501</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" s="1">
+        <v>44491</v>
+      </c>
+      <c r="B338">
+        <v>27.369372188715801</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" s="1">
+        <v>44492</v>
+      </c>
+      <c r="B339">
+        <v>27.4420764603964</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" s="1">
+        <v>44493</v>
+      </c>
+      <c r="B340">
+        <v>27.4282848325964</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B341">
+        <v>27.341380729443902</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" s="1">
+        <v>44495</v>
+      </c>
+      <c r="B342">
+        <v>27.2068581305451</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" s="1">
+        <v>44496</v>
+      </c>
+      <c r="B343">
+        <v>27.059081303867899</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" s="1">
+        <v>44497</v>
+      </c>
+      <c r="B344">
+        <v>26.935825557430501</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" s="1">
+        <v>44498</v>
+      </c>
+      <c r="B345">
+        <v>26.871287587336301</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" s="1">
+        <v>44499</v>
+      </c>
+      <c r="B346">
+        <v>26.885574490288199</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" s="1">
+        <v>44500</v>
+      </c>
+      <c r="B347">
+        <v>26.968455320568399</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B348">
+        <v>27.076974770261799</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" s="1">
+        <v>44502</v>
+      </c>
+      <c r="B349">
+        <v>27.210443469546899</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" s="1">
+        <v>44503</v>
+      </c>
+      <c r="B350">
+        <v>27.379570458275001</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" s="1">
+        <v>44504</v>
+      </c>
+      <c r="B351">
+        <v>27.584423769575199</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" s="1">
+        <v>44505</v>
+      </c>
+      <c r="B352">
+        <v>27.818123510081399</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B353">
+        <v>28.069811793130299</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B354">
+        <v>28.3270206202473</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" s="1">
+        <v>44508</v>
+      </c>
+      <c r="B355">
+        <v>28.577455463289098</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" s="1">
+        <v>44509</v>
+      </c>
+      <c r="B356">
+        <v>28.810058747255098</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" s="1">
+        <v>44510</v>
+      </c>
+      <c r="B357">
+        <v>29.017702754559402</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" s="1">
+        <v>44511</v>
+      </c>
+      <c r="B358">
+        <v>29.201832689729301</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" s="1">
+        <v>44512</v>
+      </c>
+      <c r="B359">
+        <v>29.373358802224399</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" s="1">
+        <v>44513</v>
+      </c>
+      <c r="B360">
+        <v>29.526333569374501</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" s="1">
+        <v>44514</v>
+      </c>
+      <c r="B361">
+        <v>29.655057637702601</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B362">
+        <v>29.765692081111499</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" s="1">
+        <v>44516</v>
+      </c>
+      <c r="B363">
+        <v>29.869494071646599</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" s="1">
+        <v>44517</v>
+      </c>
+      <c r="B364">
+        <v>29.978023563859001</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" s="1">
+        <v>44518</v>
+      </c>
+      <c r="B365">
+        <v>30.1004530334707</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" s="1">
+        <v>44519</v>
+      </c>
+      <c r="B366">
+        <v>30.242804745981601</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" s="1">
+        <v>44520</v>
+      </c>
+      <c r="B367">
+        <v>30.408314580326099</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" s="1">
+        <v>44521</v>
+      </c>
+      <c r="B368">
+        <v>30.5973567184835</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" s="1">
+        <v>44522</v>
+      </c>
+      <c r="B369">
+        <v>30.8069414302133</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" s="1">
+        <v>44523</v>
+      </c>
+      <c r="B370">
+        <v>31.0317862524624</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B371">
+        <v>31.268666452818</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" s="1">
+        <v>44525</v>
+      </c>
+      <c r="B372">
+        <v>31.524259347953301</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" s="1">
+        <v>44526</v>
+      </c>
+      <c r="B373">
+        <v>31.814735112228401</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B374">
+        <v>32.154604196258802</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" s="1">
+        <v>44528</v>
+      </c>
+      <c r="B375">
+        <v>32.549076530567298</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" s="1">
+        <v>44529</v>
+      </c>
+      <c r="B376">
+        <v>32.9896524051561</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" s="1">
+        <v>44530</v>
+      </c>
+      <c r="B377">
+        <v>33.455276520612898</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B378">
+        <v>33.919740463958199</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" s="1">
+        <v>44532</v>
+      </c>
+      <c r="B379">
+        <v>34.361953977239999</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B380">
+        <v>34.7808887343162</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" s="1">
+        <v>44534</v>
+      </c>
+      <c r="B381">
+        <v>35.203234946870303</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" s="1">
+        <v>44535</v>
+      </c>
+      <c r="B382">
+        <v>35.654946884979402</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" s="1">
+        <v>44536</v>
+      </c>
+      <c r="B383">
+        <v>36.159690935625498</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" s="1">
+        <v>44537</v>
+      </c>
+      <c r="B384">
+        <v>36.720028782374399</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" s="1">
+        <v>44538</v>
+      </c>
+      <c r="B385">
+        <v>37.323149945095601</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" s="1">
+        <v>44539</v>
+      </c>
+      <c r="B386">
+        <v>37.947087290088596</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387" s="1">
+        <v>44540</v>
+      </c>
+      <c r="B387">
+        <v>38.565400471281002</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388" s="1">
+        <v>44541</v>
+      </c>
+      <c r="B388">
+        <v>39.152389904246803</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" s="1">
+        <v>44542</v>
+      </c>
+      <c r="B389">
+        <v>39.688339276875404</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" s="1">
+        <v>44543</v>
+      </c>
+      <c r="B390">
+        <v>40.165057264557802</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" s="1">
+        <v>44544</v>
+      </c>
+      <c r="B391">
+        <v>40.593406530428297</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" s="1">
+        <v>44545</v>
+      </c>
+      <c r="B392">
+        <v>41.002431838644803</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" s="1">
+        <v>44546</v>
+      </c>
+      <c r="B393">
+        <v>41.417931959863999</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" s="1">
+        <v>44547</v>
+      </c>
+      <c r="B394">
+        <v>41.861875084036399</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" s="1">
+        <v>44548</v>
+      </c>
+      <c r="B395">
+        <v>42.3207723048764</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" s="1">
+        <v>44549</v>
+      </c>
+      <c r="B396">
+        <v>42.7640141602797</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" s="1">
+        <v>44550</v>
+      </c>
+      <c r="B397">
+        <v>43.161299977485399</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" s="1">
+        <v>44551</v>
+      </c>
+      <c r="B398">
+        <v>43.494546493264103</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" s="1">
+        <v>44552</v>
+      </c>
+      <c r="B399">
+        <v>43.763765885003401</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" s="1">
+        <v>44553</v>
+      </c>
+      <c r="B400">
+        <v>43.9832561523639</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" s="1">
+        <v>44554</v>
+      </c>
+      <c r="B401">
+        <v>44.173368528609103</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402" s="1">
+        <v>44555</v>
+      </c>
+      <c r="B402">
+        <v>44.347959202305802</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" s="1">
+        <v>44556</v>
+      </c>
+      <c r="B403">
+        <v>44.5034480382796</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" s="1">
+        <v>44557</v>
+      </c>
+      <c r="B404">
+        <v>44.660796934781899</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" s="1">
+        <v>44558</v>
+      </c>
+      <c r="B405">
+        <v>44.860690458606101</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" s="1">
+        <v>44559</v>
+      </c>
+      <c r="B406">
+        <v>45.084655886027598</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" s="1">
+        <v>44560</v>
+      </c>
+      <c r="B407">
+        <v>45.282488594336101</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" s="1">
+        <v>44561</v>
+      </c>
+      <c r="B408">
+        <v>45.4033464824766</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B409">
+        <v>45.4174464066448</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" s="1">
+        <v>44563</v>
+      </c>
+      <c r="B410">
+        <v>45.3272563900466</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" s="1">
+        <v>44564</v>
+      </c>
+      <c r="B411">
+        <v>45.160105326669601</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" s="1">
+        <v>44565</v>
+      </c>
+      <c r="B412">
+        <v>44.952405105725703</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" s="1">
+        <v>44566</v>
+      </c>
+      <c r="B413">
+        <v>44.726041188929798</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" s="1">
+        <v>44567</v>
+      </c>
+      <c r="B414">
+        <v>44.469457293803003</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" s="1">
+        <v>44568</v>
+      </c>
+      <c r="B415">
+        <v>44.142374176725703</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" s="1">
+        <v>44569</v>
+      </c>
+      <c r="B416">
+        <v>43.648589257284598</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" s="1">
+        <v>44570</v>
+      </c>
+      <c r="B417">
+        <v>42.972806141982701</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" s="1">
+        <v>44571</v>
+      </c>
+      <c r="B418">
+        <v>42.168486055365797</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" s="1">
+        <v>44572</v>
+      </c>
+      <c r="B419">
+        <v>41.321790188365</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" s="1">
+        <v>44573</v>
+      </c>
+      <c r="B420">
+        <v>40.524340040292003</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" s="1">
+        <v>44574</v>
+      </c>
+      <c r="B421">
+        <v>39.851316394700397</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" s="1">
+        <v>44575</v>
+      </c>
+      <c r="B422">
+        <v>39.349959590730101</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B423">
+        <v>39.031695709039802</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" s="1">
+        <v>44577</v>
+      </c>
+      <c r="B424">
+        <v>38.862892350518003</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" s="1">
+        <v>44578</v>
+      </c>
+      <c r="B425">
+        <v>38.775791067545299</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" s="1">
+        <v>44579</v>
+      </c>
+      <c r="B426">
+        <v>38.771414530320598</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" s="1">
+        <v>44580</v>
+      </c>
+      <c r="B427">
+        <v>38.921237532215798</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" s="1">
+        <v>44581</v>
+      </c>
+      <c r="B428">
+        <v>39.257784586504798</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" s="1">
+        <v>44582</v>
+      </c>
+      <c r="B429">
+        <v>39.764601621915702</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430" s="1">
+        <v>44583</v>
+      </c>
+      <c r="B430">
+        <v>40.388607354212802</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" s="1">
+        <v>44584</v>
+      </c>
+      <c r="B431">
+        <v>41.050890977430299</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A432" s="1">
+        <v>44585</v>
+      </c>
+      <c r="B432">
+        <v>41.660857492584697</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B433">
+        <v>42.137218064836603</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A434" s="1">
+        <v>44587</v>
+      </c>
+      <c r="B434">
+        <v>42.4328854214478</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A435" s="1">
+        <v>44588</v>
+      </c>
+      <c r="B435">
+        <v>42.568198869319097</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A436" s="1">
+        <v>44589</v>
+      </c>
+      <c r="B436">
+        <v>42.634911751946603</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A437" s="1">
+        <v>44590</v>
+      </c>
+      <c r="B437">
+        <v>42.642362885257697</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A438" s="1">
+        <v>44591</v>
+      </c>
+      <c r="B438">
+        <v>42.524493432643503</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A439" s="1">
+        <v>44592</v>
+      </c>
+      <c r="B439">
+        <v>42.248183532218398</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A440" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B440">
+        <v>41.823565848547901</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A441" s="1">
+        <v>44594</v>
+      </c>
+      <c r="B441">
+        <v>41.294116540137203</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A442" s="1">
+        <v>44595</v>
+      </c>
+      <c r="B442">
+        <v>40.727101281311498</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A443" s="1">
+        <v>44596</v>
+      </c>
+      <c r="B443">
+        <v>40.199439602355703</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A444" s="1">
+        <v>44597</v>
+      </c>
+      <c r="B444">
+        <v>39.778835252182702</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A445" s="1">
+        <v>44598</v>
+      </c>
+      <c r="B445">
+        <v>39.502989667943403</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A446" s="1">
+        <v>44599</v>
+      </c>
+      <c r="B446">
+        <v>39.352892666763097</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A447" s="1">
+        <v>44600</v>
+      </c>
+      <c r="B447">
+        <v>39.2503019511311</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A448" s="1">
+        <v>44601</v>
+      </c>
+      <c r="B448">
+        <v>39.161493733417601</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A449" s="1">
+        <v>44602</v>
+      </c>
+      <c r="B449">
+        <v>39.066092460093898</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A450" s="1">
+        <v>44603</v>
+      </c>
+      <c r="B450">
+        <v>38.975761113482697</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A451" s="1">
+        <v>44604</v>
+      </c>
+      <c r="B451">
+        <v>38.9209437260199</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A452" s="1">
+        <v>44605</v>
+      </c>
+      <c r="B452">
+        <v>38.931546972757303</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A453" s="1">
+        <v>44606</v>
+      </c>
+      <c r="B453">
+        <v>39.023679965510901</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A454" s="1">
+        <v>44607</v>
+      </c>
+      <c r="B454">
+        <v>39.192370206539898</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A455" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B455">
+        <v>39.414562141349599</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A456" s="1">
+        <v>44609</v>
+      </c>
+      <c r="B456">
+        <v>39.660250622719097</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A457" s="1">
+        <v>44610</v>
+      </c>
+      <c r="B457">
+        <v>39.910308602821999</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A458" s="1">
+        <v>44611</v>
+      </c>
+      <c r="B458">
+        <v>40.172650699638098</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A459" s="1">
+        <v>44612</v>
+      </c>
+      <c r="B459">
+        <v>40.458657723302601</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A460" s="1">
+        <v>44613</v>
+      </c>
+      <c r="B460">
+        <v>40.791501047084402</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A461" s="1">
+        <v>44614</v>
+      </c>
+      <c r="B461">
+        <v>41.191205803388499</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A462" s="1">
+        <v>44615</v>
+      </c>
+      <c r="B462">
+        <v>41.665468246949999</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A463" s="1">
+        <v>44616</v>
+      </c>
+      <c r="B463">
+        <v>42.207116422967196</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A464" s="1">
+        <v>44617</v>
+      </c>
+      <c r="B464">
+        <v>42.793600487668897</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A465" s="1">
+        <v>44618</v>
+      </c>
+      <c r="B465">
+        <v>43.3906584917316</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A466" s="1">
+        <v>44619</v>
+      </c>
+      <c r="B466">
+        <v>43.961819800815398</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A467" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B467">
+        <v>44.480533437298398</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A468" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B468">
+        <v>44.946497905344998</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A469" s="1">
+        <v>44622</v>
+      </c>
+      <c r="B469">
+        <v>45.396797354221803</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A470" s="1">
+        <v>44623</v>
+      </c>
+      <c r="B470">
+        <v>45.857409873681803</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A471" s="1">
+        <v>44624</v>
+      </c>
+      <c r="B471">
+        <v>46.355313039715597</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A472" s="1">
+        <v>44625</v>
+      </c>
+      <c r="B472">
+        <v>46.907344023428898</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A473" s="1">
+        <v>44626</v>
+      </c>
+      <c r="B473">
+        <v>47.5148589514694</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A474" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B474">
+        <v>48.165744460340797</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A475" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B475">
+        <v>48.8370866802534</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A476" s="1">
+        <v>44629</v>
+      </c>
+      <c r="B476">
+        <v>49.500624223151</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A477" s="1">
+        <v>44630</v>
+      </c>
+      <c r="B477">
+        <v>50.130968437735802</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A478" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B478">
+        <v>50.713176777799298</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A479" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B479">
+        <v>51.251757897720999</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A480" s="1">
+        <v>44633</v>
+      </c>
+      <c r="B480">
+        <v>51.777156982602499</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A481" s="1">
+        <v>44634</v>
+      </c>
+      <c r="B481">
+        <v>52.328683808415398</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A482" s="1">
+        <v>44635</v>
+      </c>
+      <c r="B482">
+        <v>52.977380659245298</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A483" s="1">
+        <v>44636</v>
+      </c>
+      <c r="B483">
+        <v>53.744883977465499</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A484" s="1">
+        <v>44637</v>
+      </c>
+      <c r="B484">
+        <v>54.605124498706701</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A485" s="1">
+        <v>44638</v>
+      </c>
+      <c r="B485">
+        <v>55.506489498411497</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A486" s="1">
+        <v>44639</v>
+      </c>
+      <c r="B486">
+        <v>56.388300284914799</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A487" s="1">
+        <v>44640</v>
+      </c>
+      <c r="B487">
+        <v>57.196029032849196</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A488" s="1">
+        <v>44641</v>
+      </c>
+      <c r="B488">
+        <v>57.893098675224202</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A489" s="1">
+        <v>44642</v>
+      </c>
+      <c r="B489">
+        <v>58.4672069216926</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A490" s="1">
+        <v>44643</v>
+      </c>
+      <c r="B490">
+        <v>58.936448169626203</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A491" s="1">
+        <v>44644</v>
+      </c>
+      <c r="B491">
+        <v>59.351536625154203</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A492" s="1">
+        <v>44645</v>
+      </c>
+      <c r="B492">
+        <v>59.785335361398303</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A493" s="1">
+        <v>44646</v>
+      </c>
+      <c r="B493">
+        <v>60.363221086207197</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A494" s="1">
+        <v>44647</v>
+      </c>
+      <c r="B494">
+        <v>61.083981004657801</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A495" s="1">
+        <v>44648</v>
+      </c>
+      <c r="B495">
+        <v>61.851082698891098</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A496" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B496">
+        <v>62.5400667127007</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A497" s="1">
+        <v>44650</v>
+      </c>
+      <c r="B497">
+        <v>63.044120069913802</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A498" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B498">
+        <v>63.305476054684902</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A499" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B499">
+        <v>63.322770022935003</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A500" s="1">
+        <v>44653</v>
+      </c>
+      <c r="B500">
+        <v>63.1382113469218</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A501" s="1">
+        <v>44654</v>
+      </c>
+      <c r="B501">
+        <v>62.814313228918401</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A502" s="1">
+        <v>44655</v>
+      </c>
+      <c r="B502">
+        <v>62.3978520263692</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A503" s="1">
+        <v>44656</v>
+      </c>
+      <c r="B503">
+        <v>61.857507110137803</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A504" s="1">
+        <v>44657</v>
+      </c>
+      <c r="B504">
+        <v>61.047180008353401</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A505" s="1">
+        <v>44658</v>
+      </c>
+      <c r="B505">
+        <v>59.913049820820802</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A506" s="1">
+        <v>44659</v>
+      </c>
+      <c r="B506">
+        <v>58.497869857363803</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A507" s="1">
+        <v>44660</v>
+      </c>
+      <c r="B507">
+        <v>56.9010553696749</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A508" s="1">
+        <v>44661</v>
+      </c>
+      <c r="B508">
+        <v>55.251493633489602</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A509" s="1">
+        <v>44662</v>
+      </c>
+      <c r="B509">
+        <v>53.6858073722494</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A510" s="1">
+        <v>44663</v>
+      </c>
+      <c r="B510">
+        <v>52.326135495778701</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A511" s="1">
+        <v>44664</v>
+      </c>
+      <c r="B511">
+        <v>51.257177494583502</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A512" s="1">
+        <v>44665</v>
+      </c>
+      <c r="B512">
+        <v>50.491459390986599</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A513" s="1">
+        <v>44666</v>
+      </c>
+      <c r="B513">
+        <v>49.925603097306798</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A514" s="1">
+        <v>44667</v>
+      </c>
+      <c r="B514">
+        <v>49.458992415714498</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A515" s="1">
+        <v>44668</v>
+      </c>
+      <c r="B515">
+        <v>49.137636474018599</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A516" s="1">
+        <v>44669</v>
+      </c>
+      <c r="B516">
+        <v>48.997227262299702</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A517" s="1">
+        <v>44670</v>
+      </c>
+      <c r="B517">
+        <v>49.042331643385303</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A518" s="1">
+        <v>44671</v>
+      </c>
+      <c r="B518">
+        <v>49.249515332622003</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A519" s="1">
+        <v>44672</v>
+      </c>
+      <c r="B519">
+        <v>49.569032108089402</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A520" s="1">
+        <v>44673</v>
+      </c>
+      <c r="B520">
+        <v>49.926107485970597</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A521" s="1">
+        <v>44674</v>
+      </c>
+      <c r="B521">
+        <v>50.231526911020197</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A522" s="1">
+        <v>44675</v>
+      </c>
+      <c r="B522">
+        <v>50.4024469639023</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A523" s="1">
+        <v>44676</v>
+      </c>
+      <c r="B523">
+        <v>50.3964430990506</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A524" s="1">
+        <v>44677</v>
+      </c>
+      <c r="B524">
+        <v>50.260239438011503</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A525" s="1">
+        <v>44678</v>
+      </c>
+      <c r="B525">
+        <v>50.096040084159398</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A526" s="1">
+        <v>44679</v>
+      </c>
+      <c r="B526">
+        <v>49.946052920902702</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A527" s="1">
+        <v>44680</v>
+      </c>
+      <c r="B527">
+        <v>49.778697950535999</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A528" s="1">
+        <v>44681</v>
+      </c>
+      <c r="B528">
+        <v>49.527557777977897</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A529" s="1">
+        <v>44682</v>
+      </c>
+      <c r="B529">
+        <v>49.130997666236198</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A530" s="1">
+        <v>44683</v>
+      </c>
+      <c r="B530">
+        <v>48.556889133673899</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A531" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B531">
+        <v>47.816451439057197</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A532" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B532">
+        <v>46.9591523734479</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A533" s="1">
+        <v>44686</v>
+      </c>
+      <c r="B533">
+        <v>46.052950886495502</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A534" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B534">
+        <v>45.154325602448402</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A535" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B535">
+        <v>44.263437559076102</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A536" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B536">
+        <v>43.264706860941303</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A537" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B537">
+        <v>41.913321459771197</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A538" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B538">
+        <v>40.151114543888397</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A539" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B539">
+        <v>38.0896383507053</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A540" s="1">
+        <v>44693</v>
+      </c>
+      <c r="B540">
+        <v>35.915228887667901</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A541" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B541">
+        <v>33.827167756456497</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A542" s="1">
+        <v>44695</v>
+      </c>
+      <c r="B542">
+        <v>31.9973317922652</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A543" s="1">
+        <v>44696</v>
+      </c>
+      <c r="B543">
+        <v>30.5446928863756</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A544" s="1">
+        <v>44697</v>
+      </c>
+      <c r="B544">
+        <v>29.5261974904327</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A545" s="1">
+        <v>44698</v>
+      </c>
+      <c r="B545">
+        <v>28.924134868953701</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A546" s="1">
+        <v>44699</v>
+      </c>
+      <c r="B546">
+        <v>28.629789857384502</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A547" s="1">
+        <v>44700</v>
+      </c>
+      <c r="B547">
+        <v>28.3754960085388</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A548" s="1">
+        <v>44701</v>
+      </c>
+      <c r="B548">
+        <v>27.557791282904599</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A549" s="1">
+        <v>44702</v>
+      </c>
+      <c r="B549">
+        <v>26.1216321572008</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A550" s="1">
+        <v>44703</v>
+      </c>
+      <c r="B550">
+        <v>24.519263773643399</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A551" s="1">
+        <v>44704</v>
+      </c>
+      <c r="B551">
+        <v>23.347473706468602</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A552" s="1">
+        <v>44705</v>
+      </c>
+      <c r="B552">
+        <v>23.109086083739399</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A553" s="1">
+        <v>44706</v>
+      </c>
+      <c r="B553">
+        <v>24.058696248343601</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A554" s="1">
+        <v>44707</v>
+      </c>
+      <c r="B554">
+        <v>26.162356309751399</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A555" s="1">
+        <v>44708</v>
+      </c>
+      <c r="B555">
+        <v>29.1766992713465</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A556" s="1">
+        <v>44709</v>
+      </c>
+      <c r="B556">
+        <v>32.770969023821301</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A557" s="1">
+        <v>44710</v>
+      </c>
+      <c r="B557">
+        <v>36.716632396509503</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A558" s="1">
+        <v>44711</v>
+      </c>
+      <c r="B558">
+        <v>40.9195046474157</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A559" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B559">
+        <v>44.607247709058697</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A560" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B560">
+        <v>47.787449848103897</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A561" s="1">
+        <v>44714</v>
+      </c>
+      <c r="B561">
+        <v>51.337145300637196</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A562" s="1">
+        <v>44715</v>
+      </c>
+      <c r="B562">
+        <v>56.314550051869197</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A563" s="1">
+        <v>44716</v>
+      </c>
+      <c r="B563">
+        <v>63.507258188525498</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A564" s="1">
+        <v>44717</v>
+      </c>
+      <c r="B564">
+        <v>73.155508012841295</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A565" s="1">
+        <v>44718</v>
+      </c>
+      <c r="B565">
+        <v>84.911550718705399</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A566" s="1">
+        <v>44719</v>
+      </c>
+      <c r="B566">
+        <v>98.043232173853994</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A567" s="1">
+        <v>44720</v>
+      </c>
+      <c r="B567">
+        <v>111.750442681089</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A568" s="1">
+        <v>44721</v>
+      </c>
+      <c r="B568">
+        <v>125.653194165473</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A569" s="1">
+        <v>44722</v>
+      </c>
+      <c r="B569">
+        <v>140.308540315036</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A570" s="1">
+        <v>44723</v>
+      </c>
+      <c r="B570">
+        <v>157.31975776103999</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A571" s="1">
+        <v>44724</v>
+      </c>
+      <c r="B571">
+        <v>177.557510676959</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A572" s="1">
+        <v>44725</v>
+      </c>
+      <c r="B572">
+        <v>200.51550674655999</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A573" s="1">
+        <v>44726</v>
+      </c>
+      <c r="B573">
+        <v>224.978347306308</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A574" s="1">
+        <v>44727</v>
+      </c>
+      <c r="B574">
+        <v>249.48973408086701</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A575" s="1">
+        <v>44728</v>
+      </c>
+      <c r="B575">
+        <v>272.62795597481198</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A576" s="1">
+        <v>44729</v>
+      </c>
+      <c r="B576">
+        <v>293.20477765319703</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A577" s="1">
+        <v>44730</v>
+      </c>
+      <c r="B577">
+        <v>310.41816521532201</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A578" s="1">
+        <v>44731</v>
+      </c>
+      <c r="B578">
+        <v>324.04569969984902</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A579" s="1">
+        <v>44732</v>
+      </c>
+      <c r="B579">
+        <v>334.73481169139899</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A580" s="1">
+        <v>44733</v>
+      </c>
+      <c r="B580">
+        <v>343.96764462425</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A581" s="1">
+        <v>44734</v>
+      </c>
+      <c r="B581">
+        <v>353.54691111674299</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A582" s="1">
+        <v>44735</v>
+      </c>
+      <c r="B582">
+        <v>364.136732501967</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A583" s="1">
+        <v>44736</v>
+      </c>
+      <c r="B583">
+        <v>374.50448694669899</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A584" s="1">
+        <v>44737</v>
+      </c>
+      <c r="B584">
+        <v>382.80967094463801</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A585" s="1">
+        <v>44738</v>
+      </c>
+      <c r="B585">
+        <v>387.56130739025798</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A586" s="1">
+        <v>44739</v>
+      </c>
+      <c r="B586">
+        <v>388.29747961006802</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A587" s="1">
+        <v>44740</v>
+      </c>
+      <c r="B587">
+        <v>385.80287380716402</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A588" s="1">
+        <v>44741</v>
+      </c>
+      <c r="B588">
+        <v>381.63139572539302</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A589" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B589">
+        <v>377.38541293961799</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A590" s="1">
+        <v>44743</v>
+      </c>
+      <c r="B590">
+        <v>373.63856986545102</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A591" s="1">
+        <v>44744</v>
+      </c>
+      <c r="B591">
+        <v>369.25607798101498</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A592" s="1">
+        <v>44745</v>
+      </c>
+      <c r="B592">
+        <v>363.77772965563298</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A593" s="1">
+        <v>44746</v>
+      </c>
+      <c r="B593">
+        <v>356.85913838978399</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A594" s="1">
+        <v>44747</v>
+      </c>
+      <c r="B594">
+        <v>348.04557861636602</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A595" s="1">
+        <v>44748</v>
+      </c>
+      <c r="B595">
+        <v>337.02683969724001</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A596" s="1">
+        <v>44749</v>
+      </c>
+      <c r="B596">
+        <v>323.79758574221</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A597" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B597">
+        <v>308.75205637010498</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A598" s="1">
+        <v>44751</v>
+      </c>
+      <c r="B598">
+        <v>292.68320062174399</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A599" s="1">
+        <v>44752</v>
+      </c>
+      <c r="B599">
+        <v>276.622580684318</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A600" s="1">
+        <v>44753</v>
+      </c>
+      <c r="B600">
+        <v>261.496861356279</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A601" s="1">
+        <v>44754</v>
+      </c>
+      <c r="B601">
+        <v>247.57053678746499</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A602" s="1">
+        <v>44755</v>
+      </c>
+      <c r="B602">
+        <v>234.09112802649599</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A603" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B603">
+        <v>220.311200930148</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A604" s="1">
+        <v>44757</v>
+      </c>
+      <c r="B604">
+        <v>205.738775538304</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A605" s="1">
+        <v>44758</v>
+      </c>
+      <c r="B605">
+        <v>190.671185000826</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A606" s="1">
+        <v>44759</v>
+      </c>
+      <c r="B606">
+        <v>175.78095566067699</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A607" s="1">
+        <v>44760</v>
+      </c>
+      <c r="B607">
+        <v>161.753599565298</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A608" s="1">
+        <v>44761</v>
+      </c>
+      <c r="B608">
+        <v>149.040066528138</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A609" s="1">
+        <v>44762</v>
+      </c>
+      <c r="B609">
+        <v>137.728668443782</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A610" s="1">
+        <v>44763</v>
+      </c>
+      <c r="B610">
+        <v>127.60515205590799</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A611" s="1">
+        <v>44764</v>
+      </c>
+      <c r="B611">
+        <v>118.29388385594901</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A612" s="1">
+        <v>44765</v>
+      </c>
+      <c r="B612">
+        <v>109.47727211102</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A613" s="1">
+        <v>44766</v>
+      </c>
+      <c r="B613">
+        <v>101.117783195793</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A614" s="1">
+        <v>44767</v>
+      </c>
+      <c r="B614">
+        <v>93.170381949913903</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A615" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B615">
+        <v>85.670810000942495</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A616" s="1">
+        <v>44769</v>
+      </c>
+      <c r="B616">
+        <v>78.938660145513097</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A617" s="1">
+        <v>44770</v>
+      </c>
+      <c r="B617">
+        <v>73.322498639857798</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A618" s="1">
+        <v>44771</v>
+      </c>
+      <c r="B618">
+        <v>68.993710143373505</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A619" s="1">
+        <v>44772</v>
+      </c>
+      <c r="B619">
+        <v>65.814703960280696</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A620" s="1">
+        <v>44773</v>
+      </c>
+      <c r="B620">
+        <v>63.320215420506301</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A621" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B621">
+        <v>60.876313206733798</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A622" s="1">
+        <v>44775</v>
+      </c>
+      <c r="B622">
+        <v>57.932831840433202</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A623" s="1">
+        <v>44776</v>
+      </c>
+      <c r="B623">
+        <v>54.393598162626802</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A624" s="1">
+        <v>44777</v>
+      </c>
+      <c r="B624">
+        <v>50.811571298509001</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A625" s="1">
+        <v>44778</v>
+      </c>
+      <c r="B625">
+        <v>47.341836364206102</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A626" s="1">
+        <v>44779</v>
+      </c>
+      <c r="B626">
+        <v>43.944431346444198</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A627" s="1">
+        <v>44780</v>
+      </c>
+      <c r="B627">
+        <v>40.7246174591033</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A628" s="1">
+        <v>44781</v>
+      </c>
+      <c r="B628">
+        <v>37.8352509972555</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A629" s="1">
+        <v>44782</v>
+      </c>
+      <c r="B629">
+        <v>35.381226550646701</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A630" s="1">
+        <v>44783</v>
+      </c>
+      <c r="B630">
+        <v>33.356357093788297</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A631" s="1">
+        <v>44784</v>
+      </c>
+      <c r="B631">
+        <v>31.624922432369502</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A632" s="1">
+        <v>44785</v>
+      </c>
+      <c r="B632">
+        <v>29.977893514954701</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A633" s="1">
+        <v>44786</v>
+      </c>
+      <c r="B633">
+        <v>28.223770731014</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A634" s="1">
+        <v>44787</v>
+      </c>
+      <c r="B634">
+        <v>26.319301180578702</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A635" s="1">
+        <v>44788</v>
+      </c>
+      <c r="B635">
+        <v>24.441882262923301</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A636" s="1">
+        <v>44789</v>
+      </c>
+      <c r="B636">
+        <v>22.6375398377353</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A637" s="1">
+        <v>44790</v>
+      </c>
+      <c r="B637">
+        <v>20.879923926898101</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A638" s="1">
+        <v>44791</v>
+      </c>
+      <c r="B638">
+        <v>19.225581846812201</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A639" s="1">
+        <v>44792</v>
+      </c>
+      <c r="B639">
+        <v>17.7632706908635</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A640" s="1">
+        <v>44793</v>
+      </c>
+      <c r="B640">
+        <v>16.556161274693299</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A641" s="1">
+        <v>44794</v>
+      </c>
+      <c r="B641">
+        <v>15.603579256271701</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A642" s="1">
+        <v>44795</v>
+      </c>
+      <c r="B642">
+        <v>14.828477924289601</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A643" s="1">
+        <v>44796</v>
+      </c>
+      <c r="B643">
+        <v>14.1089905474491</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A644" s="1">
+        <v>44797</v>
+      </c>
+      <c r="B644">
+        <v>13.3318962334957</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A645" s="1">
+        <v>44798</v>
+      </c>
+      <c r="B645">
+        <v>12.46915996759</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A646" s="1">
+        <v>44799</v>
+      </c>
+      <c r="B646">
+        <v>11.621077707047901</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A647" s="1">
+        <v>44800</v>
+      </c>
+      <c r="B647">
+        <v>10.813396290265301</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A648" s="1">
+        <v>44801</v>
+      </c>
+      <c r="B648">
+        <v>10.023398229432701</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A649" s="1">
+        <v>44802</v>
+      </c>
+      <c r="B649">
+        <v>9.2810956747454405</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A650" s="1">
+        <v>44803</v>
+      </c>
+      <c r="B650">
+        <v>8.6412879419548698</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A651" s="1">
+        <v>44804</v>
+      </c>
+      <c r="B651">
+        <v>8.1466878056520695</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A652" s="1">
+        <v>44805</v>
+      </c>
+      <c r="B652">
+        <v>7.8030434505577499</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A653" s="1">
+        <v>44806</v>
+      </c>
+      <c r="B653">
+        <v>7.5693143405728396</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A654" s="1">
+        <v>44807</v>
+      </c>
+      <c r="B654">
+        <v>7.3758196597117296</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A655" s="1">
+        <v>44808</v>
+      </c>
+      <c r="B655">
+        <v>7.1562303022307301</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A656" s="1">
+        <v>44809</v>
+      </c>
+      <c r="B656">
+        <v>6.8930278600291803</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A657" s="1">
+        <v>44810</v>
+      </c>
+      <c r="B657">
+        <v>6.64343908992499</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A658" s="1">
+        <v>44811</v>
+      </c>
+      <c r="B658">
+        <v>6.4226217678161897</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A659" s="1">
+        <v>44812</v>
+      </c>
+      <c r="B659">
+        <v>6.2208722509781502</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A660" s="1">
+        <v>44813</v>
+      </c>
+      <c r="B660">
+        <v>6.0588766714046596</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A661" s="1">
+        <v>44814</v>
+      </c>
+      <c r="B661">
+        <v>5.9698974032697096</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A662" s="1">
+        <v>44815</v>
+      </c>
+      <c r="B662">
+        <v>5.9779320587525504</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A663" s="1">
+        <v>44816</v>
+      </c>
+      <c r="B663">
+        <v>6.0831363180792204</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A664" s="1">
+        <v>44817</v>
+      </c>
+      <c r="B664">
+        <v>6.2562711705755003</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A665" s="1">
+        <v>44818</v>
+      </c>
+      <c r="B665">
+        <v>6.4503355737818202</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A666" s="1">
+        <v>44819</v>
+      </c>
+      <c r="B666">
+        <v>6.6215462564754102</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A667" s="1">
+        <v>44820</v>
+      </c>
+      <c r="B667">
+        <v>6.7591568590356701</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A668" s="1">
+        <v>44821</v>
+      </c>
+      <c r="B668">
+        <v>6.9020955628167098</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A669" s="1">
+        <v>44822</v>
+      </c>
+      <c r="B669">
+        <v>7.0665342488105498</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A670" s="1">
+        <v>44823</v>
+      </c>
+      <c r="B670">
+        <v>7.2624362253674404</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A671" s="1">
+        <v>44824</v>
+      </c>
+      <c r="B671">
+        <v>7.5014917051076404</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A672" s="1">
+        <v>44825</v>
+      </c>
+      <c r="B672">
+        <v>7.7904648293057903</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A673" s="1">
+        <v>44826</v>
+      </c>
+      <c r="B673">
+        <v>8.1271372297142204</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A674" s="1">
+        <v>44827</v>
+      </c>
+      <c r="B674">
+        <v>8.4979486154681698</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A675" s="1">
+        <v>44828</v>
+      </c>
+      <c r="B675">
+        <v>8.8786095380025092</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A676" s="1">
+        <v>44829</v>
+      </c>
+      <c r="B676">
+        <v>9.2411770030920799</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A677" s="1">
+        <v>44830</v>
+      </c>
+      <c r="B677">
+        <v>9.5644641137194704</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A678" s="1">
+        <v>44831</v>
+      </c>
+      <c r="B678">
+        <v>9.8482548381307993</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A679" s="1">
+        <v>44832</v>
+      </c>
+      <c r="B679">
+        <v>10.120662352461901</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A680" s="1">
+        <v>44833</v>
+      </c>
+      <c r="B680">
+        <v>10.389660277911601</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A681" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B681">
+        <v>10.647591343576201</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A682" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B682">
+        <v>10.897060191873299</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A683" s="1">
+        <v>44836</v>
+      </c>
+      <c r="B683">
+        <v>11.147509991843201</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A684" s="1">
+        <v>44837</v>
+      </c>
+      <c r="B684">
+        <v>11.4093563982116</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A685" s="1">
+        <v>44838</v>
+      </c>
+      <c r="B685">
+        <v>11.690156096426</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A686" s="1">
+        <v>44839</v>
+      </c>
+      <c r="B686">
+        <v>11.9926394608494</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A687" s="1">
+        <v>44840</v>
+      </c>
+      <c r="B687">
+        <v>12.3150747661919</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A688" s="1">
+        <v>44841</v>
+      </c>
+      <c r="B688">
+        <v>12.6529614886639</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A689" s="1">
+        <v>44842</v>
+      </c>
+      <c r="B689">
+        <v>13.001675531674399</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A690" s="1">
+        <v>44843</v>
+      </c>
+      <c r="B690">
+        <v>13.359866529511301</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A691" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B691">
+        <v>13.7446783802362</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A692" s="1">
+        <v>44845</v>
+      </c>
+      <c r="B692">
+        <v>14.2082140370595</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A693" s="1">
+        <v>44846</v>
+      </c>
+      <c r="B693">
+        <v>14.7578215566758</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A694" s="1">
+        <v>44847</v>
+      </c>
+      <c r="B694">
+        <v>15.3625059699222</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A695" s="1">
+        <v>44848</v>
+      </c>
+      <c r="B695">
+        <v>15.9751179670354</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A696" s="1">
+        <v>44849</v>
+      </c>
+      <c r="B696">
+        <v>16.547844862506601</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A697" s="1">
+        <v>44850</v>
+      </c>
+      <c r="B697">
+        <v>17.043776518871301</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A698" s="1">
+        <v>44851</v>
+      </c>
+      <c r="B698">
+        <v>17.442799028013599</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A699" s="1">
+        <v>44852</v>
+      </c>
+      <c r="B699">
+        <v>17.743168424343299</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A700" s="1">
+        <v>44853</v>
+      </c>
+      <c r="B700">
+        <v>17.962149743110199</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A701" s="1">
+        <v>44854</v>
+      </c>
+      <c r="B701">
+        <v>18.132194476013002</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A702" s="1">
+        <v>44855</v>
+      </c>
+      <c r="B702">
+        <v>18.233242052170201</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A703" s="1">
+        <v>44856</v>
+      </c>
+      <c r="B703">
+        <v>18.1507407936734</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A704" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B704">
+        <v>17.860798464947099</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A705" s="1">
+        <v>44858</v>
+      </c>
+      <c r="B705">
+        <v>17.4213297583395</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A706" s="1">
+        <v>44859</v>
+      </c>
+      <c r="B706">
+        <v>16.928012920959201</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A707" s="1">
+        <v>44860</v>
+      </c>
+      <c r="B707">
+        <v>16.483770759048198</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A708" s="1">
+        <v>44861</v>
+      </c>
+      <c r="B708">
+        <v>16.175399266845499</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A709" s="1">
+        <v>44862</v>
+      </c>
+      <c r="B709">
+        <v>16.060012826223101</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A710" s="1">
+        <v>44863</v>
+      </c>
+      <c r="B710">
+        <v>16.158254606416399</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A711" s="1">
+        <v>44864</v>
+      </c>
+      <c r="B711">
+        <v>16.4460790508777</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A712" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B712">
+        <v>16.851214324279301</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A713" s="1">
+        <v>44866</v>
+      </c>
+      <c r="B713">
+        <v>17.351428294418199</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A714" s="1">
+        <v>44867</v>
+      </c>
+      <c r="B714">
+        <v>18.031107379426299</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A715" s="1">
+        <v>44868</v>
+      </c>
+      <c r="B715">
+        <v>18.934260352735599</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A716" s="1">
+        <v>44869</v>
+      </c>
+      <c r="B716">
+        <v>20.051397108601002</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A717" s="1">
+        <v>44870</v>
+      </c>
+      <c r="B717">
+        <v>21.3335130660857</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A718" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B718">
+        <v>22.702172780368102</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A719" s="1">
+        <v>44872</v>
+      </c>
+      <c r="B719">
+        <v>24.059821235123</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A720" s="1">
+        <v>44873</v>
+      </c>
+      <c r="B720">
+        <v>25.3073375337603</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A721" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B721">
+        <v>26.367530351145501</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A722" s="1">
+        <v>44875</v>
+      </c>
+      <c r="B722">
+        <v>27.220444953699701</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A723" s="1">
+        <v>44876</v>
+      </c>
+      <c r="B723">
+        <v>27.946286886322401</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A724" s="1">
+        <v>44877</v>
+      </c>
+      <c r="B724">
+        <v>28.6529160957414</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A725" s="1">
+        <v>44878</v>
+      </c>
+      <c r="B725">
+        <v>29.4117378917392</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A726" s="1">
+        <v>44879</v>
+      </c>
+      <c r="B726">
+        <v>30.1978275475381</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A727" s="1">
+        <v>44880</v>
+      </c>
+      <c r="B727">
+        <v>30.9276884717748</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A728" s="1">
+        <v>44881</v>
+      </c>
+      <c r="B728">
+        <v>31.512896245943502</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A729" s="1">
+        <v>44882</v>
+      </c>
+      <c r="B729">
+        <v>31.8949873713382</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A730" s="1">
+        <v>44883</v>
+      </c>
+      <c r="B730">
+        <v>32.066757515796603</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A731" s="1">
+        <v>44884</v>
+      </c>
+      <c r="B731">
+        <v>32.0699832100535</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A732" s="1">
+        <v>44885</v>
+      </c>
+      <c r="B732">
+        <v>31.974217426883101</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A733" s="1">
+        <v>44886</v>
+      </c>
+      <c r="B733">
+        <v>31.842777445184002</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A734" s="1">
+        <v>44887</v>
+      </c>
+      <c r="B734">
+        <v>31.683244513773602</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A735" s="1">
+        <v>44888</v>
+      </c>
+      <c r="B735">
+        <v>31.428468301207701</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A736" s="1">
+        <v>44889</v>
+      </c>
+      <c r="B736">
+        <v>30.9590958607752</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A737" s="1">
+        <v>44890</v>
+      </c>
+      <c r="B737">
+        <v>30.233137378598599</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A738" s="1">
+        <v>44891</v>
+      </c>
+      <c r="B738">
+        <v>29.284838843573901</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A739" s="1">
+        <v>44892</v>
+      </c>
+      <c r="B739">
+        <v>28.192916366052899</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A740" s="1">
+        <v>44893</v>
+      </c>
+      <c r="B740">
+        <v>27.0597785847621</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A741" s="1">
+        <v>44894</v>
+      </c>
+      <c r="B741">
+        <v>25.9968214312334</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A742" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B742">
+        <v>25.1064987423993</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A743" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B743">
+        <v>24.462726395037699</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A744" s="1">
+        <v>44897</v>
+      </c>
+      <c r="B744">
+        <v>24.082111938458301</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A745" s="1">
+        <v>44898</v>
+      </c>
+      <c r="B745">
+        <v>23.885117047541499</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A746" s="1">
+        <v>44899</v>
+      </c>
+      <c r="B746">
+        <v>23.7665588072472</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A747" s="1">
+        <v>44900</v>
+      </c>
+      <c r="B747">
+        <v>23.743614820762399</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A748" s="1">
+        <v>44901</v>
+      </c>
+      <c r="B748">
+        <v>23.853966749379499</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A749" s="1">
+        <v>44902</v>
+      </c>
+      <c r="B749">
+        <v>24.1246565569216</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A750" s="1">
+        <v>44903</v>
+      </c>
+      <c r="B750">
+        <v>24.560994358373499</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A751" s="1">
+        <v>44904</v>
+      </c>
+      <c r="B751">
+        <v>25.139567053070401</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A752" s="1">
+        <v>44905</v>
+      </c>
+      <c r="B752">
+        <v>25.804437499623599</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A753" s="1">
+        <v>44906</v>
+      </c>
+      <c r="B753">
+        <v>26.476127243390302</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A754" s="1">
+        <v>44907</v>
+      </c>
+      <c r="B754">
+        <v>27.072230878087002</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A755" s="1">
+        <v>44908</v>
+      </c>
+      <c r="B755">
+        <v>27.540177647746098</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A756" s="1">
+        <v>44909</v>
+      </c>
+      <c r="B756">
+        <v>27.906207286253501</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A757" s="1">
+        <v>44910</v>
+      </c>
+      <c r="B757">
+        <v>28.2672963994209</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A758" s="1">
+        <v>44911</v>
+      </c>
+      <c r="B758">
+        <v>28.674598260620201</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A759" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B759">
+        <v>29.131821147211198</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A760" s="1">
+        <v>44913</v>
+      </c>
+      <c r="B760">
+        <v>29.613432803297702</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A761" s="1">
+        <v>44914</v>
+      </c>
+      <c r="B761">
+        <v>30.084052228266199</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A762" s="1">
+        <v>44915</v>
+      </c>
+      <c r="B762">
+        <v>30.510905853796199</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A763" s="1">
+        <v>44916</v>
+      </c>
+      <c r="B763">
+        <v>30.8714891431495</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A764" s="1">
+        <v>44917</v>
+      </c>
+      <c r="B764">
+        <v>31.156956385746401</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A765" s="1">
+        <v>44918</v>
+      </c>
+      <c r="B765">
+        <v>31.370954189350002</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A766" s="1">
+        <v>44919</v>
+      </c>
+      <c r="B766">
+        <v>31.526846075363</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A767" s="1">
+        <v>44920</v>
+      </c>
+      <c r="B767">
+        <v>31.642744760573098</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A768" s="1">
+        <v>44921</v>
+      </c>
+      <c r="B768">
+        <v>31.732965918436602</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A769" s="1">
+        <v>44922</v>
+      </c>
+      <c r="B769">
+        <v>31.804682770974601</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A770" s="1">
+        <v>44923</v>
+      </c>
+      <c r="B770">
+        <v>31.850935936104001</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A771" s="1">
+        <v>44924</v>
+      </c>
+      <c r="B771">
+        <v>31.856959996438601</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A772" s="1">
+        <v>44925</v>
+      </c>
+      <c r="B772">
+        <v>31.810285071714102</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A773" s="1">
+        <v>44926</v>
+      </c>
+      <c r="B773">
+        <v>31.707648205563199</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A774" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B774">
+        <v>31.560432315281901</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A775" s="1">
+        <v>44928</v>
+      </c>
+      <c r="B775">
+        <v>31.3940019949878</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A776" s="1">
+        <v>44929</v>
+      </c>
+      <c r="B776">
+        <v>31.2396963466242</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A777" s="1">
+        <v>44930</v>
+      </c>
+      <c r="B777">
+        <v>31.122814567201999</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A778" s="1">
+        <v>44931</v>
+      </c>
+      <c r="B778">
+        <v>31.044122493442099</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A779" s="1">
+        <v>44932</v>
+      </c>
+      <c r="B779">
+        <v>30.980961133543101</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A780" s="1">
+        <v>44933</v>
+      </c>
+      <c r="B780">
+        <v>30.9835690698851</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A781" s="1">
+        <v>44934</v>
+      </c>
+      <c r="B781">
+        <v>31.071917286182899</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A782" s="1">
+        <v>44935</v>
+      </c>
+      <c r="B782">
+        <v>31.2090917513904</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A783" s="1">
+        <v>44936</v>
+      </c>
+      <c r="B783">
+        <v>31.336511594303001</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A784" s="1">
+        <v>44937</v>
+      </c>
+      <c r="B784">
+        <v>31.3977183852334</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A785" s="1">
+        <v>44938</v>
+      </c>
+      <c r="B785">
+        <v>31.353291469361999</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A786" s="1">
+        <v>44939</v>
+      </c>
+      <c r="B786">
+        <v>31.187648478496499</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A787" s="1">
+        <v>44940</v>
+      </c>
+      <c r="B787">
+        <v>30.9065134627456</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A788" s="1">
+        <v>44941</v>
+      </c>
+      <c r="B788">
+        <v>30.531348898463602</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A789" s="1">
+        <v>44942</v>
+      </c>
+      <c r="B789">
+        <v>30.0902799877875</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A790" s="1">
+        <v>44943</v>
+      </c>
+      <c r="B790">
+        <v>29.597904880299001</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A791" s="1">
+        <v>44944</v>
+      </c>
+      <c r="B791">
+        <v>29.001240477629601</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A792" s="1">
+        <v>44945</v>
+      </c>
+      <c r="B792">
+        <v>28.2557775275734</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A793" s="1">
+        <v>44946</v>
+      </c>
+      <c r="B793">
+        <v>27.3680619852977</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A794" s="1">
+        <v>44947</v>
+      </c>
+      <c r="B794">
+        <v>26.376464354038401</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A795" s="1">
+        <v>44948</v>
+      </c>
+      <c r="B795">
+        <v>25.3367977612616</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A796" s="1">
+        <v>44949</v>
+      </c>
+      <c r="B796">
+        <v>24.313226063297002</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A797" s="1">
+        <v>44950</v>
+      </c>
+      <c r="B797">
+        <v>23.368829369147502</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A798" s="1">
+        <v>44951</v>
+      </c>
+      <c r="B798">
+        <v>22.555047688150101</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A799" s="1">
+        <v>44952</v>
+      </c>
+      <c r="B799">
+        <v>21.897049125687101</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A800" s="1">
+        <v>44953</v>
+      </c>
+      <c r="B800">
+        <v>21.371564487462699</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A801" s="1">
+        <v>44954</v>
+      </c>
+      <c r="B801">
+        <v>20.907889157650601</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A802" s="1">
+        <v>44955</v>
+      </c>
+      <c r="B802">
+        <v>20.511597113771501</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A803" s="1">
+        <v>44956</v>
+      </c>
+      <c r="B803">
+        <v>20.215541518361999</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A804" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B804">
+        <v>20.030037083067601</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A805" s="1">
+        <v>44958</v>
+      </c>
+      <c r="B805">
+        <v>19.944853467230601</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A806" s="1">
+        <v>44959</v>
+      </c>
+      <c r="B806">
+        <v>19.931963403444598</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A807" s="1">
+        <v>44960</v>
+      </c>
+      <c r="B807">
+        <v>19.947486096342701</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A808" s="1">
+        <v>44961</v>
+      </c>
+      <c r="B808">
+        <v>19.937851947214298</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A809" s="1">
+        <v>44962</v>
+      </c>
+      <c r="B809">
+        <v>19.851827316081302</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A810" s="1">
+        <v>44963</v>
+      </c>
+      <c r="B810">
+        <v>19.6571850775094</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A811" s="1">
+        <v>44964</v>
+      </c>
+      <c r="B811">
+        <v>19.3655235002274</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A812" s="1">
+        <v>44965</v>
+      </c>
+      <c r="B812">
+        <v>19.037517194292001</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A813" s="1">
+        <v>44966</v>
+      </c>
+      <c r="B813">
+        <v>18.667349331879102</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A814" s="1">
+        <v>44967</v>
+      </c>
+      <c r="B814">
+        <v>18.225881155677499</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A815" s="1">
+        <v>44968</v>
+      </c>
+      <c r="B815">
+        <v>17.713578407554301</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A816" s="1">
+        <v>44969</v>
+      </c>
+      <c r="B816">
+        <v>17.150322139932101</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A817" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B817">
+        <v>16.565993201044201</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A818" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B818">
+        <v>15.993735673614401</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A819" s="1">
+        <v>44972</v>
+      </c>
+      <c r="B819">
+        <v>15.463783432652001</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A820" s="1">
+        <v>44973</v>
+      </c>
+      <c r="B820">
+        <v>14.998534266733399</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A821" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B821">
+        <v>14.6069027675944</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A822" s="1">
+        <v>44975</v>
+      </c>
+      <c r="B822">
+        <v>14.276259940842699</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A823" s="1">
+        <v>44976</v>
+      </c>
+      <c r="B823">
+        <v>13.9741563501527</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A824" s="1">
+        <v>44977</v>
+      </c>
+      <c r="B824">
+        <v>13.6988035085581</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A825" s="1">
+        <v>44978</v>
+      </c>
+      <c r="B825">
+        <v>13.464941559244799</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A826" s="1">
+        <v>44979</v>
+      </c>
+      <c r="B826">
+        <v>13.2797929711733</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A827" s="1">
+        <v>44980</v>
+      </c>
+      <c r="B827">
+        <v>13.1418171292904</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A828" s="1">
+        <v>44981</v>
+      </c>
+      <c r="B828">
+        <v>13.041079071833501</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A829" s="1">
+        <v>44982</v>
+      </c>
+      <c r="B829">
+        <v>12.9597985395226</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A830" s="1">
+        <v>44983</v>
+      </c>
+      <c r="B830">
+        <v>12.8747304150357</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A831" s="1">
+        <v>44984</v>
+      </c>
+      <c r="B831">
+        <v>12.762485279334401</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A832" s="1">
+        <v>44985</v>
+      </c>
+      <c r="B832">
+        <v>12.607162963712801</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A833" s="1">
+        <v>44986</v>
+      </c>
+      <c r="B833">
+        <v>12.4115974940144</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A834" s="1">
+        <v>44987</v>
+      </c>
+      <c r="B834">
+        <v>12.2007970827494</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A835" s="1">
+        <v>44988</v>
+      </c>
+      <c r="B835">
+        <v>11.9697521301251</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A836" s="1">
+        <v>44989</v>
+      </c>
+      <c r="B836">
+        <v>11.695238127348301</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A837" s="1">
+        <v>44990</v>
+      </c>
+      <c r="B837">
+        <v>11.376798964747101</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A838" s="1">
+        <v>44991</v>
+      </c>
+      <c r="B838">
+        <v>11.0297782602191</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A839" s="1">
+        <v>44992</v>
+      </c>
+      <c r="B839">
+        <v>10.676365265343801</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A840" s="1">
+        <v>44993</v>
+      </c>
+      <c r="B840">
+        <v>10.339001516518</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A841" s="1">
+        <v>44994</v>
+      </c>
+      <c r="B841">
+        <v>10.0352229526139</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A842" s="1">
+        <v>44995</v>
+      </c>
+      <c r="B842">
+        <v>9.7753266520703104</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A843" s="1">
+        <v>44996</v>
+      </c>
+      <c r="B843">
+        <v>9.5608137953478902</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A844" s="1">
+        <v>44997</v>
+      </c>
+      <c r="B844">
+        <v>9.3825276689098303</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A845" s="1">
+        <v>44998</v>
+      </c>
+      <c r="B845">
+        <v>9.2236741826945892</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A846" s="1">
+        <v>44999</v>
+      </c>
+      <c r="B846">
+        <v>9.0825476204319298</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A847" s="1">
+        <v>45000</v>
+      </c>
+      <c r="B847">
+        <v>8.9688215362376909</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A848" s="1">
+        <v>45001</v>
+      </c>
+      <c r="B848">
+        <v>8.8896704361472807</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A849" s="1">
+        <v>45002</v>
+      </c>
+      <c r="B849">
+        <v>8.8466327970789198</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A850" s="1">
+        <v>45003</v>
+      </c>
+      <c r="B850">
+        <v>8.83467789567319</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A851" s="1">
+        <v>45004</v>
+      </c>
+      <c r="B851">
+        <v>8.8419275902449908</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A852" s="1">
+        <v>45005</v>
+      </c>
+      <c r="B852">
+        <v>8.8510892070942102</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A853" s="1">
+        <v>45006</v>
+      </c>
+      <c r="B853">
+        <v>8.8438259292729899</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A854" s="1">
+        <v>45007</v>
+      </c>
+      <c r="B854">
+        <v>8.8070258972225997</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A855" s="1">
+        <v>45008</v>
+      </c>
+      <c r="B855">
+        <v>8.7417587888820592</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A856" s="1">
+        <v>45009</v>
+      </c>
+      <c r="B856">
+        <v>8.6664222412424703</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A857" s="1">
+        <v>45010</v>
+      </c>
+      <c r="B857">
+        <v>8.5813223545641701</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A858" s="1">
+        <v>45011</v>
+      </c>
+      <c r="B858">
+        <v>8.4691807303135604</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A859" s="1">
+        <v>45012</v>
+      </c>
+      <c r="B859">
+        <v>8.3268241004944308</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A860" s="1">
+        <v>45013</v>
+      </c>
+      <c r="B860">
+        <v>8.1636288763229192</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A861" s="1">
+        <v>45014</v>
+      </c>
+      <c r="B861">
+        <v>7.9948211029826899</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A862" s="1">
+        <v>45015</v>
+      </c>
+      <c r="B862">
+        <v>7.8363225896059996</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A863" s="1">
+        <v>45016</v>
+      </c>
+      <c r="B863">
+        <v>7.7005502250181301</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A864" s="1">
+        <v>45017</v>
+      </c>
+      <c r="B864">
+        <v>7.5944835273543596</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A865" s="1">
+        <v>45018</v>
+      </c>
+      <c r="B865">
+        <v>7.5188043992029403</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A866" s="1">
+        <v>45019</v>
+      </c>
+      <c r="B866">
+        <v>7.4671609202465499</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A867" s="1">
+        <v>45020</v>
+      </c>
+      <c r="B867">
+        <v>7.4285953349926501</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A868" s="1">
+        <v>45021</v>
+      </c>
+      <c r="B868">
+        <v>7.40110603386489</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A869" s="1">
+        <v>45022</v>
+      </c>
+      <c r="B869">
+        <v>7.3895747537143501</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A870" s="1">
+        <v>45023</v>
+      </c>
+      <c r="B870">
+        <v>7.3981027657712897</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A871" s="1">
+        <v>45024</v>
+      </c>
+      <c r="B871">
+        <v>7.4277793667487702</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A872" s="1">
+        <v>45025</v>
+      </c>
+      <c r="B872">
+        <v>7.4759643711388497</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A873" s="1">
+        <v>45026</v>
+      </c>
+      <c r="B873">
+        <v>7.5359226202801102</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A874" s="1">
+        <v>45027</v>
+      </c>
+      <c r="B874">
+        <v>7.5973338721488899</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A875" s="1">
+        <v>45028</v>
+      </c>
+      <c r="B875">
+        <v>7.6489129179406801</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A876" s="1">
+        <v>45029</v>
+      </c>
+      <c r="B876">
+        <v>7.6823814280040397</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A877" s="1">
+        <v>45030</v>
+      </c>
+      <c r="B877">
+        <v>7.6980627244278299</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A878" s="1">
+        <v>45031</v>
+      </c>
+      <c r="B878">
+        <v>7.70685038202308</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A879" s="1">
+        <v>45032</v>
+      </c>
+      <c r="B879">
+        <v>7.7096893347084103</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A880" s="1">
+        <v>45033</v>
+      </c>
+      <c r="B880">
+        <v>7.6982996035188096</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A881" s="1">
+        <v>45034</v>
+      </c>
+      <c r="B881">
+        <v>7.6692872096837101</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A882" s="1">
+        <v>45035</v>
+      </c>
+      <c r="B882">
+        <v>7.6248464100450102</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A883" s="1">
+        <v>45036</v>
+      </c>
+      <c r="B883">
+        <v>7.5709934495998104</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A884" s="1">
+        <v>45037</v>
+      </c>
+      <c r="B884">
+        <v>7.5160416072008696</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A885" s="1">
+        <v>45038</v>
+      </c>
+      <c r="B885">
+        <v>7.4687254143816002</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A886" s="1">
+        <v>45039</v>
+      </c>
+      <c r="B886">
+        <v>7.4360186354314104</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A887" s="1">
+        <v>45040</v>
+      </c>
+      <c r="B887">
+        <v>7.4210735600971596</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A888" s="1">
+        <v>45041</v>
+      </c>
+      <c r="B888">
+        <v>7.4207735569787099</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A889" s="1">
+        <v>45042</v>
+      </c>
+      <c r="B889">
+        <v>7.4260914250642296</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A890" s="1">
+        <v>45043</v>
+      </c>
+      <c r="B890">
+        <v>7.4325314111978997</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A891" s="1">
+        <v>45044</v>
+      </c>
+      <c r="B891">
+        <v>7.4352507988393697</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A892" s="1">
+        <v>45045</v>
+      </c>
+      <c r="B892">
+        <v>7.4349536902054796</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A893" s="1">
+        <v>45046</v>
+      </c>
+      <c r="B893">
+        <v>7.4362321002360598</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A894" s="1">
+        <v>45047</v>
+      </c>
+      <c r="B894">
+        <v>7.4444049733017597</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A895" s="1">
+        <v>45048</v>
+      </c>
+      <c r="B895">
+        <v>7.4632562492534502</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A896" s="1">
+        <v>45049</v>
+      </c>
+      <c r="B896">
+        <v>7.4935123802285597</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A897" s="1">
+        <v>45050</v>
+      </c>
+      <c r="B897">
+        <v>7.5329943404775603</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A898" s="1">
+        <v>45051</v>
+      </c>
+      <c r="B898">
+        <v>7.5779834826665198</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A899" s="1">
+        <v>45052</v>
+      </c>
+      <c r="B899">
+        <v>7.6254629150018598</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A900" s="1">
+        <v>45053</v>
+      </c>
+      <c r="B900">
+        <v>7.6754496911533598</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A901" s="1">
+        <v>45054</v>
+      </c>
+      <c r="B901">
+        <v>7.7246984929750901</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A902" s="1">
+        <v>45055</v>
+      </c>
+      <c r="B902">
+        <v>7.7625002869633599</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A903" s="1">
+        <v>45056</v>
+      </c>
+      <c r="B903">
+        <v>7.7897800390644596</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A904" s="1">
+        <v>45057</v>
+      </c>
+      <c r="B904">
+        <v>7.8159651536522201</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A905" s="1">
+        <v>45058</v>
+      </c>
+      <c r="B905">
+        <v>7.8524701951609197</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A906" s="1">
+        <v>45059</v>
+      </c>
+      <c r="B906">
+        <v>7.9081400871369798</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A907" s="1">
+        <v>45060</v>
+      </c>
+      <c r="B907">
+        <v>7.9861919442965901</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A908" s="1">
+        <v>45061</v>
+      </c>
+      <c r="B908">
+        <v>8.0843068707112309</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A909" s="1">
+        <v>45062</v>
+      </c>
+      <c r="B909">
+        <v>8.1967736746791093</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A910" s="1">
+        <v>45063</v>
+      </c>
+      <c r="B910">
+        <v>8.31794567824954</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A911" s="1">
+        <v>45064</v>
+      </c>
+      <c r="B911">
+        <v>8.4464520041862592</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A912" s="1">
+        <v>45065</v>
+      </c>
+      <c r="B912">
+        <v>8.5820343527278506</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A913" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B913">
+        <v>8.7246460191731696</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A914" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B914">
+        <v>8.8803175127037104</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A915" s="1">
+        <v>45068</v>
+      </c>
+      <c r="B915">
+        <v>9.0567863949162994</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A916" s="1">
+        <v>45069</v>
+      </c>
+      <c r="B916">
+        <v>9.2590598468478191</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A917" s="1">
+        <v>45070</v>
+      </c>
+      <c r="B917">
+        <v>9.4866149457600795</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A918" s="1">
+        <v>45071</v>
+      </c>
+      <c r="B918">
+        <v>9.7323642607764196</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A919" s="1">
+        <v>45072</v>
+      </c>
+      <c r="B919">
+        <v>9.9848273603988993</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A920" s="1">
+        <v>45073</v>
+      </c>
+      <c r="B920">
+        <v>10.2324047940228</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A921" s="1">
+        <v>45074</v>
+      </c>
+      <c r="B921">
+        <v>10.4697334581732</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A922" s="1">
+        <v>45075</v>
+      </c>
+      <c r="B922">
+        <v>10.7046456867477</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A923" s="1">
+        <v>45076</v>
+      </c>
+      <c r="B923">
+        <v>10.949752567101999</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A924" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B924">
+        <v>11.223345386680201</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A925" s="1">
+        <v>45078</v>
+      </c>
+      <c r="B925">
+        <v>11.528520025456301</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A926" s="1">
+        <v>45079</v>
+      </c>
+      <c r="B926">
+        <v>11.855230254760601</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A927" s="1">
+        <v>45080</v>
+      </c>
+      <c r="B927">
+        <v>12.187545714383001</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A928" s="1">
+        <v>45081</v>
+      </c>
+      <c r="B928">
+        <v>12.5085872775167</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A929" s="1">
+        <v>45082</v>
+      </c>
+      <c r="B929">
+        <v>12.8041160825054</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A930" s="1">
+        <v>45083</v>
+      </c>
+      <c r="B930">
+        <v>13.064990695732</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A931" s="1">
+        <v>45084</v>
+      </c>
+      <c r="B931">
+        <v>13.2884527164099</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A932" s="1">
+        <v>45085</v>
+      </c>
+      <c r="B932">
+        <v>13.4793998423535</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A933" s="1">
+        <v>45086</v>
+      </c>
+      <c r="B933">
+        <v>13.650722206598401</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A934" s="1">
+        <v>45087</v>
+      </c>
+      <c r="B934">
+        <v>13.812327944243499</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A935" s="1">
+        <v>45088</v>
+      </c>
+      <c r="B935">
+        <v>13.968166827610901</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A936" s="1">
+        <v>45089</v>
+      </c>
+      <c r="B936">
+        <v>14.1112750057525</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A937" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B937">
+        <v>14.229901976749501</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A938" s="1">
+        <v>45091</v>
+      </c>
+      <c r="B938">
+        <v>14.3147031146315</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A939" s="1">
+        <v>45092</v>
+      </c>
+      <c r="B939">
+        <v>14.363454419255699</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A940" s="1">
+        <v>45093</v>
+      </c>
+      <c r="B940">
+        <v>14.383740893624299</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A941" s="1">
+        <v>45094</v>
+      </c>
+      <c r="B941">
+        <v>14.3907180593483</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A942" s="1">
+        <v>45095</v>
+      </c>
+      <c r="B942">
+        <v>14.401407700313801</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A943" s="1">
+        <v>45096</v>
+      </c>
+      <c r="B943">
+        <v>14.426162772839801</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A944" s="1">
+        <v>45097</v>
+      </c>
+      <c r="B944">
+        <v>14.457406635453999</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A945" s="1">
+        <v>45098</v>
+      </c>
+      <c r="B945">
+        <v>14.486054326979</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A946" s="1">
+        <v>45099</v>
+      </c>
+      <c r="B946">
+        <v>14.521446737791599</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A947" s="1">
+        <v>45100</v>
+      </c>
+      <c r="B947">
+        <v>14.561212493790901</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A948" s="1">
+        <v>45101</v>
+      </c>
+      <c r="B948">
+        <v>14.5947356473835</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A949" s="1">
+        <v>45102</v>
+      </c>
+      <c r="B949">
+        <v>14.610433462228499</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A950" s="1">
+        <v>45103</v>
+      </c>
+      <c r="B950">
+        <v>14.6006431099051</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A951" s="1">
+        <v>45104</v>
+      </c>
+      <c r="B951">
+        <v>14.5649960385032</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A952" s="1">
+        <v>45105</v>
+      </c>
+      <c r="B952">
+        <v>14.5100462864715</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A953" s="1">
+        <v>45106</v>
+      </c>
+      <c r="B953">
+        <v>14.445906282040101</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A954" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B954">
+        <v>14.381151571212101</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A955" s="1">
+        <v>45108</v>
+      </c>
+      <c r="B955">
+        <v>14.3155491849915</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A956" s="1">
+        <v>45109</v>
+      </c>
+      <c r="B956">
+        <v>14.2494603600614</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A957" s="1">
+        <v>45110</v>
+      </c>
+      <c r="B957">
+        <v>14.201372166260301</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A958" s="1">
+        <v>45111</v>
+      </c>
+      <c r="B958">
+        <v>14.170738510331899</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A959" s="1">
+        <v>45112</v>
+      </c>
+      <c r="B959">
+        <v>14.1425596123877</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A960" s="1">
+        <v>45113</v>
+      </c>
+      <c r="B960">
+        <v>14.0981040195928</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A961" s="1">
+        <v>45114</v>
+      </c>
+      <c r="B961">
+        <v>14.022065737990699</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A962" s="1">
+        <v>45115</v>
+      </c>
+      <c r="B962">
+        <v>13.9076464480124</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A963" s="1">
+        <v>45116</v>
+      </c>
+      <c r="B963">
+        <v>13.7576338196984</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A964" s="1">
+        <v>45117</v>
+      </c>
+      <c r="B964">
+        <v>13.581529332894601</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A965" s="1">
+        <v>45118</v>
+      </c>
+      <c r="B965">
+        <v>13.390787781629401</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A966" s="1">
+        <v>45119</v>
+      </c>
+      <c r="B966">
+        <v>13.191434188195901</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A967" s="1">
+        <v>45120</v>
+      </c>
+      <c r="B967">
+        <v>12.9788440828332</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A968" s="1">
+        <v>45121</v>
+      </c>
+      <c r="B968">
+        <v>12.743188768411599</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A969" s="1">
+        <v>45122</v>
+      </c>
+      <c r="B969">
+        <v>12.481790106676</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A970" s="1">
+        <v>45123</v>
+      </c>
+      <c r="B970">
+        <v>12.1984375886314</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A971" s="1">
+        <v>45124</v>
+      </c>
+      <c r="B971">
+        <v>11.900288518824301</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A972" s="1">
+        <v>45125</v>
+      </c>
+      <c r="B972">
+        <v>11.5960697506443</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A973" s="1">
+        <v>45126</v>
+      </c>
+      <c r="B973">
+        <v>11.295303713054199</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A974" s="1">
+        <v>45127</v>
+      </c>
+      <c r="B974">
+        <v>11.007648389143601</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A975" s="1">
+        <v>45128</v>
+      </c>
+      <c r="B975">
+        <v>10.741496715774201</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A976" s="1">
+        <v>45129</v>
+      </c>
+      <c r="B976">
+        <v>10.501133148760999</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A977" s="1">
+        <v>45130</v>
+      </c>
+      <c r="B977">
+        <v>10.2822896789287</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A978" s="1">
+        <v>45131</v>
+      </c>
+      <c r="B978">
+        <v>10.0714955348001</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A979" s="1">
+        <v>45132</v>
+      </c>
+      <c r="B979">
+        <v>9.8559452682123894</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A980" s="1">
+        <v>45133</v>
+      </c>
+      <c r="B980">
+        <v>9.6414887956685806</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A981" s="1">
+        <v>45134</v>
+      </c>
+      <c r="B981">
+        <v>9.4454410892376206</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A982" s="1">
+        <v>45135</v>
+      </c>
+      <c r="B982">
+        <v>9.2851380260345699</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A983" s="1">
+        <v>45136</v>
+      </c>
+      <c r="B983">
+        <v>9.1706298641066706</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A984" s="1">
+        <v>45137</v>
+      </c>
+      <c r="B984">
+        <v>9.1001709922815301</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A985" s="1">
+        <v>45138</v>
+      </c>
+      <c r="B985">
+        <v>9.0609706606658307</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A986" s="1">
+        <v>45139</v>
+      </c>
+      <c r="B986">
+        <v>9.0345845124163393</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A987" s="1">
+        <v>45140</v>
+      </c>
+      <c r="B987">
+        <v>9.0047575382910399</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A988" s="1">
+        <v>45141</v>
+      </c>
+      <c r="B988">
+        <v>8.9692685964302807</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A989" s="1">
+        <v>45142</v>
+      </c>
+      <c r="B989">
+        <v>8.9486710861877405</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A990" s="1">
+        <v>45143</v>
+      </c>
+      <c r="B990">
+        <v>8.9772736197399592</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A991" s="1">
+        <v>45144</v>
+      </c>
+      <c r="B991">
+        <v>9.0707244359638501</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A992" s="1">
+        <v>45145</v>
+      </c>
+      <c r="B992">
+        <v>9.2215820712015795</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A993" s="1">
+        <v>45146</v>
+      </c>
+      <c r="B993">
+        <v>9.4096199773609506</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A994" s="1">
+        <v>45147</v>
+      </c>
+      <c r="B994">
+        <v>9.6089159874983903</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A995" s="1">
+        <v>45148</v>
+      </c>
+      <c r="B995">
+        <v>9.7925019104130797</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A996" s="1">
+        <v>45149</v>
+      </c>
+      <c r="B996">
+        <v>9.9364580923925203</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A997" s="1">
+        <v>45150</v>
+      </c>
+      <c r="B997">
+        <v>10.023105156730001</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A998" s="1">
+        <v>45151</v>
+      </c>
+      <c r="B998">
+        <v>10.045737301703699</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A999" s="1">
+        <v>45152</v>
+      </c>
+      <c r="B999">
+        <v>10.0159139288494</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1000" s="1">
+        <v>45153</v>
+      </c>
+      <c r="B1000">
+        <v>9.9611628397402896</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1001" s="1">
+        <v>45154</v>
+      </c>
+      <c r="B1001">
+        <v>9.8794338767776608</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1002" s="1">
+        <v>45155</v>
+      </c>
+      <c r="B1002">
+        <v>9.7585619476969701</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1003" s="1">
+        <v>45156</v>
+      </c>
+      <c r="B1003">
+        <v>9.59201326739033</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1004" s="1">
+        <v>45157</v>
+      </c>
+      <c r="B1004">
+        <v>9.3801829010707891</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1005" s="1">
+        <v>45158</v>
+      </c>
+      <c r="B1005">
+        <v>9.1308416777459698</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1006" s="1">
+        <v>45159</v>
+      </c>
+      <c r="B1006">
+        <v>8.8590699983733607</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1007" s="1">
+        <v>45160</v>
+      </c>
+      <c r="B1007">
+        <v>8.5851174684011191</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1008" s="1">
+        <v>45161</v>
+      </c>
+      <c r="B1008">
+        <v>8.3301350199060291</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1009" s="1">
+        <v>45162</v>
+      </c>
+      <c r="B1009">
+        <v>8.1093000706749407</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1010" s="1">
+        <v>45163</v>
+      </c>
+      <c r="B1010">
+        <v>7.9210480611156404</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1011" s="1">
+        <v>45164</v>
+      </c>
+      <c r="B1011">
+        <v>7.7412689757406197</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1012" s="1">
+        <v>45165</v>
+      </c>
+      <c r="B1012">
+        <v>7.5466366005568704</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1013" s="1">
+        <v>45166</v>
+      </c>
+      <c r="B1013">
+        <v>7.3289492804522798</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1014" s="1">
+        <v>45167</v>
+      </c>
+      <c r="B1014">
+        <v>7.0975910796334096</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1015" s="1">
+        <v>45168</v>
+      </c>
+      <c r="B1015">
+        <v>6.8692315926665497</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1016" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B1016">
+        <v>6.6604654805281198</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1017" s="1">
+        <v>45170</v>
+      </c>
+      <c r="B1017">
+        <v>6.4830142210730699</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1018" s="1">
+        <v>45171</v>
+      </c>
+      <c r="B1018">
+        <v>6.3412201102780896</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1019" s="1">
+        <v>45172</v>
+      </c>
+      <c r="B1019">
+        <v>6.2326711845112799</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1020" s="1">
+        <v>45173</v>
+      </c>
+      <c r="B1020">
+        <v>6.1501563025975203</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1021" s="1">
+        <v>45174</v>
+      </c>
+      <c r="B1021">
+        <v>6.0849441725258604</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1022" s="1">
+        <v>45175</v>
+      </c>
+      <c r="B1022">
+        <v>6.0313544403553099</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1023" s="1">
+        <v>45176</v>
+      </c>
+      <c r="B1023">
+        <v>5.9837669668586901</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1024" s="1">
+        <v>45177</v>
+      </c>
+      <c r="B1024">
+        <v>5.9422350700187803</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1025" s="1">
+        <v>45178</v>
+      </c>
+      <c r="B1025">
+        <v>5.9154962784498997</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1026" s="1">
+        <v>45179</v>
+      </c>
+      <c r="B1026">
+        <v>5.91356152674906</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1027" s="1">
+        <v>45180</v>
+      </c>
+      <c r="B1027">
+        <v>5.9423585910007004</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1028" s="1">
+        <v>45181</v>
+      </c>
+      <c r="B1028">
+        <v>6.0001272031128599</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1029" s="1">
+        <v>45182</v>
+      </c>
+      <c r="B1029">
+        <v>6.0768267747518303</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1030" s="1">
+        <v>45183</v>
+      </c>
+      <c r="B1030">
+        <v>6.1579035928956101</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1031" s="1">
+        <v>45184</v>
+      </c>
+      <c r="B1031">
+        <v>6.2301682520065</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1032" s="1">
+        <v>45185</v>
+      </c>
+      <c r="B1032">
+        <v>6.2906669807057103</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1033" s="1">
+        <v>45186</v>
+      </c>
+      <c r="B1033">
+        <v>6.3519504925851198</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1034" s="1">
+        <v>45187</v>
+      </c>
+      <c r="B1034">
+        <v>6.4264292875412599</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1035" s="1">
+        <v>45188</v>
+      </c>
+      <c r="B1035">
+        <v>6.5238586232079498</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1036" s="1">
+        <v>45189</v>
+      </c>
+      <c r="B1036">
+        <v>6.6434806301301199</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1037" s="1">
+        <v>45190</v>
+      </c>
+      <c r="B1037">
+        <v>6.7780195955989999</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1038" s="1">
+        <v>45191</v>
+      </c>
+      <c r="B1038">
+        <v>6.9173872018340603</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1039" s="1">
+        <v>45192</v>
+      </c>
+      <c r="B1039">
+        <v>7.0513602045792299</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1040" s="1">
+        <v>45193</v>
+      </c>
+      <c r="B1040">
+        <v>7.1715975055501104</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1041" s="1">
+        <v>45194</v>
+      </c>
+      <c r="B1041">
+        <v>7.2725080902123302</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1042" s="1">
+        <v>45195</v>
+      </c>
+      <c r="B1042">
+        <v>7.3522803245232602</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1043" s="1">
+        <v>45196</v>
+      </c>
+      <c r="B1043">
+        <v>7.41443496808402</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1044" s="1">
+        <v>45197</v>
+      </c>
+      <c r="B1044">
+        <v>7.4672335646111296</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1045" s="1">
+        <v>45198</v>
+      </c>
+      <c r="B1045">
+        <v>7.5212268018312898</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1046" s="1">
+        <v>45199</v>
+      </c>
+      <c r="B1046">
+        <v>7.5844650835502696</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1047" s="1">
+        <v>45200</v>
+      </c>
+      <c r="B1047">
+        <v>7.64850036400306</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1048" s="1">
+        <v>45201</v>
+      </c>
+      <c r="B1048">
+        <v>7.6980456430239101</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1049" s="1">
+        <v>45202</v>
+      </c>
+      <c r="B1049">
+        <v>7.71939111956641</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1050" s="1">
+        <v>45203</v>
+      </c>
+      <c r="B1050">
+        <v>7.7059880668929202</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1051" s="1">
+        <v>45204</v>
+      </c>
+      <c r="B1051">
+        <v>7.6607556035837296</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1052" s="1">
+        <v>45205</v>
+      </c>
+      <c r="B1052">
+        <v>7.5935262942102701</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1053" s="1">
+        <v>45206</v>
+      </c>
+      <c r="B1053">
+        <v>7.51616204475655</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1054" s="1">
+        <v>45207</v>
+      </c>
+      <c r="B1054">
+        <v>7.4351640014368297</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1055" s="1">
+        <v>45208</v>
+      </c>
+      <c r="B1055">
+        <v>7.3457603378289598</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1056" s="1">
+        <v>45209</v>
+      </c>
+      <c r="B1056">
+        <v>7.23642977081066</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1057" s="1">
+        <v>45210</v>
+      </c>
+      <c r="B1057">
+        <v>7.0891707578433998</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1058" s="1">
+        <v>45211</v>
+      </c>
+      <c r="B1058">
+        <v>6.9016407352093196</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1059" s="1">
+        <v>45212</v>
+      </c>
+      <c r="B1059">
+        <v>6.6836635677859704</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1060" s="1">
+        <v>45213</v>
+      </c>
+      <c r="B1060">
+        <v>6.4517411077109497</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1061" s="1">
+        <v>45214</v>
+      </c>
+      <c r="B1061">
+        <v>6.2250272792100603</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1062" s="1">
+        <v>45215</v>
+      </c>
+      <c r="B1062">
+        <v>6.0199390299674</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1063" s="1">
+        <v>45216</v>
+      </c>
+      <c r="B1063">
+        <v>5.8466690155560297</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1064" s="1">
+        <v>45217</v>
+      </c>
+      <c r="B1064">
+        <v>5.7140792233013498</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1065" s="1">
+        <v>45218</v>
+      </c>
+      <c r="B1065">
+        <v>5.6196900370134397</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1066" s="1">
+        <v>45219</v>
+      </c>
+      <c r="B1066">
+        <v>5.5485969328785796</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1067" s="1">
+        <v>45220</v>
+      </c>
+      <c r="B1067">
+        <v>5.4984394042926699</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1068" s="1">
+        <v>45221</v>
+      </c>
+      <c r="B1068">
+        <v>5.4715621964636103</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1069" s="1">
+        <v>45222</v>
+      </c>
+      <c r="B1069">
+        <v>5.46973093849605</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1070" s="1">
+        <v>45223</v>
+      </c>
+      <c r="B1070">
+        <v>5.4934352073789903</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1071" s="1">
+        <v>45224</v>
+      </c>
+      <c r="B1071">
+        <v>5.5407418705448297</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1072" s="1">
+        <v>45225</v>
+      </c>
+      <c r="B1072">
+        <v>5.6058637896263699</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1073" s="1">
+        <v>45226</v>
+      </c>
+      <c r="B1073">
+        <v>5.6787207912631796</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1074" s="1">
+        <v>45227</v>
+      </c>
+      <c r="B1074">
+        <v>5.7472527956361699</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1075" s="1">
+        <v>45228</v>
+      </c>
+      <c r="B1075">
+        <v>5.8017692615033596</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1076" s="1">
+        <v>45229</v>
+      </c>
+      <c r="B1076">
+        <v>5.8419623316823799</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1077" s="1">
+        <v>45230</v>
+      </c>
+      <c r="B1077">
+        <v>5.8801916156789096</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1078" s="1">
+        <v>45231</v>
+      </c>
+      <c r="B1078">
+        <v>5.9208839136067404</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1079" s="1">
+        <v>45232</v>
+      </c>
+      <c r="B1079">
+        <v>5.9645960077032596</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1080" s="1">
+        <v>45233</v>
+      </c>
+      <c r="B1080">
+        <v>6.0119375887628701</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1081" s="1">
+        <v>45234</v>
+      </c>
+      <c r="B1081">
+        <v>6.0633842851329902</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1082" s="1">
+        <v>45235</v>
+      </c>
+      <c r="B1082">
+        <v>6.1189631003239899</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1083" s="1">
+        <v>45236</v>
+      </c>
+      <c r="B1083">
+        <v>6.1778115860151299</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1084" s="1">
+        <v>45237</v>
+      </c>
+      <c r="B1084">
+        <v>6.2378098103073798</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1085" s="1">
+        <v>45238</v>
+      </c>
+      <c r="B1085">
+        <v>6.2958220255470998</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1086" s="1">
+        <v>45239</v>
+      </c>
+      <c r="B1086">
+        <v>6.3489351890661396</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1087" s="1">
+        <v>45240</v>
+      </c>
+      <c r="B1087">
+        <v>6.3968825817421999</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1088" s="1">
+        <v>45241</v>
+      </c>
+      <c r="B1088">
+        <v>6.4432996337894499</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1089" s="1">
+        <v>45242</v>
+      </c>
+      <c r="B1089">
+        <v>6.4893174826216899</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1090" s="1">
+        <v>45243</v>
+      </c>
+      <c r="B1090">
+        <v>6.5347901216020698</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1091" s="1">
+        <v>45244</v>
+      </c>
+      <c r="B1091">
+        <v>6.5795336762471699</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1092" s="1">
+        <v>45245</v>
+      </c>
+      <c r="B1092">
+        <v>6.62332492300132</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1093" s="1">
+        <v>45246</v>
+      </c>
+      <c r="B1093">
+        <v>6.6659043381397396</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1060">
+    <sortCondition ref="A214:A1060"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>